--- a/storage/app/tests/other classifiers/adult.training.xlsx
+++ b/storage/app/tests/other classifiers/adult.training.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rusty/projects/diaspectrex-api/storage/app/tests/other classifiers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E68D323A-FDF1-FC45-8F45-2476FA7BF53E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{8E570718-5969-5340-9941-C1586218DA75}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17560" xr2:uid="{58B98C76-BB47-AE4F-936F-6E12AA973AD1}"/>
   </bookViews>
@@ -188,7 +188,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -209,16 +209,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -536,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5281D16-367E-2741-8E5D-69B99B902027}">
-  <dimension ref="A1:AH381"/>
+  <dimension ref="A1:AG266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U8" zoomScale="125" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="F266" sqref="F266"/>
+    <sheetView tabSelected="1" topLeftCell="G240" zoomScale="67" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="A267" sqref="A267:XFD764"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -26403,7 +26393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="1:34">
+    <row r="257" spans="1:33">
       <c r="A257" s="1">
         <v>0.24</v>
       </c>
@@ -26504,7 +26494,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:34">
+    <row r="258" spans="1:33">
       <c r="A258" s="1">
         <v>95.52000000000001</v>
       </c>
@@ -26605,7 +26595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="1:34">
+    <row r="259" spans="1:33">
       <c r="A259" s="1">
         <v>2.21</v>
       </c>
@@ -26706,7 +26696,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:34">
+    <row r="260" spans="1:33">
       <c r="A260" s="1">
         <v>0</v>
       </c>
@@ -26807,7 +26797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:34">
+    <row r="261" spans="1:33">
       <c r="A261" s="1">
         <v>94.94</v>
       </c>
@@ -26908,7 +26898,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="262" spans="1:34">
+    <row r="262" spans="1:33">
       <c r="A262" s="1">
         <v>0</v>
       </c>
@@ -27009,7 +26999,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="1:34">
+    <row r="263" spans="1:33">
       <c r="A263" s="1">
         <v>66.34</v>
       </c>
@@ -27110,7 +27100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="264" spans="1:34">
+    <row r="264" spans="1:33">
       <c r="A264" s="1">
         <v>16.100000000000001</v>
       </c>
@@ -27211,7 +27201,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="265" spans="1:34">
+    <row r="265" spans="1:33">
       <c r="A265" s="1">
         <v>3.25</v>
       </c>
@@ -27312,7 +27302,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:34">
+    <row r="266" spans="1:33">
       <c r="A266" s="1">
         <v>94.64</v>
       </c>
@@ -27412,4146 +27402,6 @@
       <c r="AG266" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="267" spans="1:34">
-      <c r="A267" s="11"/>
-      <c r="B267" s="11"/>
-      <c r="C267" s="11"/>
-      <c r="D267" s="11"/>
-      <c r="E267" s="11"/>
-      <c r="F267" s="11"/>
-      <c r="G267" s="11"/>
-      <c r="H267" s="11"/>
-      <c r="I267" s="11"/>
-      <c r="J267" s="11"/>
-      <c r="K267" s="11"/>
-      <c r="L267" s="11"/>
-      <c r="M267" s="11"/>
-      <c r="N267" s="11"/>
-      <c r="O267" s="11"/>
-      <c r="P267" s="11"/>
-      <c r="Q267" s="11"/>
-      <c r="R267" s="11"/>
-      <c r="S267" s="11"/>
-      <c r="T267" s="11"/>
-      <c r="U267" s="11"/>
-      <c r="V267" s="11"/>
-      <c r="W267" s="11"/>
-      <c r="X267" s="11"/>
-      <c r="Y267" s="11"/>
-      <c r="Z267" s="11"/>
-      <c r="AA267" s="11"/>
-      <c r="AB267" s="11"/>
-      <c r="AC267" s="11"/>
-      <c r="AD267" s="11"/>
-      <c r="AE267" s="11"/>
-      <c r="AF267" s="11"/>
-      <c r="AG267" s="9"/>
-      <c r="AH267" s="10"/>
-    </row>
-    <row r="268" spans="1:34">
-      <c r="A268" s="11"/>
-      <c r="B268" s="11"/>
-      <c r="C268" s="11"/>
-      <c r="D268" s="11"/>
-      <c r="E268" s="11"/>
-      <c r="F268" s="11"/>
-      <c r="G268" s="11"/>
-      <c r="H268" s="11"/>
-      <c r="I268" s="11"/>
-      <c r="J268" s="11"/>
-      <c r="K268" s="11"/>
-      <c r="L268" s="11"/>
-      <c r="M268" s="11"/>
-      <c r="N268" s="11"/>
-      <c r="O268" s="11"/>
-      <c r="P268" s="11"/>
-      <c r="Q268" s="11"/>
-      <c r="R268" s="11"/>
-      <c r="S268" s="11"/>
-      <c r="T268" s="11"/>
-      <c r="U268" s="11"/>
-      <c r="V268" s="11"/>
-      <c r="W268" s="11"/>
-      <c r="X268" s="11"/>
-      <c r="Y268" s="11"/>
-      <c r="Z268" s="11"/>
-      <c r="AA268" s="11"/>
-      <c r="AB268" s="11"/>
-      <c r="AC268" s="11"/>
-      <c r="AD268" s="11"/>
-      <c r="AE268" s="11"/>
-      <c r="AF268" s="11"/>
-      <c r="AG268" s="9"/>
-      <c r="AH268" s="10"/>
-    </row>
-    <row r="269" spans="1:34">
-      <c r="A269" s="11"/>
-      <c r="B269" s="11"/>
-      <c r="C269" s="11"/>
-      <c r="D269" s="11"/>
-      <c r="E269" s="11"/>
-      <c r="F269" s="11"/>
-      <c r="G269" s="11"/>
-      <c r="H269" s="11"/>
-      <c r="I269" s="11"/>
-      <c r="J269" s="11"/>
-      <c r="K269" s="11"/>
-      <c r="L269" s="11"/>
-      <c r="M269" s="11"/>
-      <c r="N269" s="11"/>
-      <c r="O269" s="11"/>
-      <c r="P269" s="11"/>
-      <c r="Q269" s="11"/>
-      <c r="R269" s="11"/>
-      <c r="S269" s="11"/>
-      <c r="T269" s="11"/>
-      <c r="U269" s="11"/>
-      <c r="V269" s="11"/>
-      <c r="W269" s="11"/>
-      <c r="X269" s="11"/>
-      <c r="Y269" s="11"/>
-      <c r="Z269" s="11"/>
-      <c r="AA269" s="11"/>
-      <c r="AB269" s="11"/>
-      <c r="AC269" s="11"/>
-      <c r="AD269" s="11"/>
-      <c r="AE269" s="11"/>
-      <c r="AF269" s="11"/>
-      <c r="AG269" s="9"/>
-      <c r="AH269" s="10"/>
-    </row>
-    <row r="270" spans="1:34">
-      <c r="A270" s="11"/>
-      <c r="B270" s="11"/>
-      <c r="C270" s="11"/>
-      <c r="D270" s="11"/>
-      <c r="E270" s="11"/>
-      <c r="F270" s="11"/>
-      <c r="G270" s="11"/>
-      <c r="H270" s="11"/>
-      <c r="I270" s="11"/>
-      <c r="J270" s="11"/>
-      <c r="K270" s="11"/>
-      <c r="L270" s="11"/>
-      <c r="M270" s="11"/>
-      <c r="N270" s="11"/>
-      <c r="O270" s="11"/>
-      <c r="P270" s="11"/>
-      <c r="Q270" s="11"/>
-      <c r="R270" s="11"/>
-      <c r="S270" s="11"/>
-      <c r="T270" s="11"/>
-      <c r="U270" s="11"/>
-      <c r="V270" s="11"/>
-      <c r="W270" s="11"/>
-      <c r="X270" s="11"/>
-      <c r="Y270" s="11"/>
-      <c r="Z270" s="11"/>
-      <c r="AA270" s="11"/>
-      <c r="AB270" s="11"/>
-      <c r="AC270" s="11"/>
-      <c r="AD270" s="11"/>
-      <c r="AE270" s="11"/>
-      <c r="AF270" s="11"/>
-      <c r="AG270" s="9"/>
-      <c r="AH270" s="10"/>
-    </row>
-    <row r="271" spans="1:34">
-      <c r="A271" s="11"/>
-      <c r="B271" s="11"/>
-      <c r="C271" s="11"/>
-      <c r="D271" s="11"/>
-      <c r="E271" s="11"/>
-      <c r="F271" s="11"/>
-      <c r="G271" s="11"/>
-      <c r="H271" s="11"/>
-      <c r="I271" s="11"/>
-      <c r="J271" s="11"/>
-      <c r="K271" s="11"/>
-      <c r="L271" s="11"/>
-      <c r="M271" s="11"/>
-      <c r="N271" s="11"/>
-      <c r="O271" s="11"/>
-      <c r="P271" s="11"/>
-      <c r="Q271" s="11"/>
-      <c r="R271" s="11"/>
-      <c r="S271" s="11"/>
-      <c r="T271" s="11"/>
-      <c r="U271" s="11"/>
-      <c r="V271" s="11"/>
-      <c r="W271" s="11"/>
-      <c r="X271" s="11"/>
-      <c r="Y271" s="11"/>
-      <c r="Z271" s="11"/>
-      <c r="AA271" s="11"/>
-      <c r="AB271" s="11"/>
-      <c r="AC271" s="11"/>
-      <c r="AD271" s="11"/>
-      <c r="AE271" s="11"/>
-      <c r="AF271" s="11"/>
-      <c r="AG271" s="9"/>
-      <c r="AH271" s="10"/>
-    </row>
-    <row r="272" spans="1:34">
-      <c r="A272" s="11"/>
-      <c r="B272" s="11"/>
-      <c r="C272" s="11"/>
-      <c r="D272" s="11"/>
-      <c r="E272" s="11"/>
-      <c r="F272" s="11"/>
-      <c r="G272" s="11"/>
-      <c r="H272" s="11"/>
-      <c r="I272" s="11"/>
-      <c r="J272" s="11"/>
-      <c r="K272" s="11"/>
-      <c r="L272" s="11"/>
-      <c r="M272" s="11"/>
-      <c r="N272" s="11"/>
-      <c r="O272" s="11"/>
-      <c r="P272" s="11"/>
-      <c r="Q272" s="11"/>
-      <c r="R272" s="11"/>
-      <c r="S272" s="11"/>
-      <c r="T272" s="11"/>
-      <c r="U272" s="11"/>
-      <c r="V272" s="11"/>
-      <c r="W272" s="11"/>
-      <c r="X272" s="11"/>
-      <c r="Y272" s="11"/>
-      <c r="Z272" s="11"/>
-      <c r="AA272" s="11"/>
-      <c r="AB272" s="11"/>
-      <c r="AC272" s="11"/>
-      <c r="AD272" s="11"/>
-      <c r="AE272" s="11"/>
-      <c r="AF272" s="11"/>
-      <c r="AG272" s="9"/>
-      <c r="AH272" s="10"/>
-    </row>
-    <row r="273" spans="1:34">
-      <c r="A273" s="11"/>
-      <c r="B273" s="11"/>
-      <c r="C273" s="11"/>
-      <c r="D273" s="11"/>
-      <c r="E273" s="11"/>
-      <c r="F273" s="11"/>
-      <c r="G273" s="11"/>
-      <c r="H273" s="11"/>
-      <c r="I273" s="11"/>
-      <c r="J273" s="11"/>
-      <c r="K273" s="11"/>
-      <c r="L273" s="11"/>
-      <c r="M273" s="11"/>
-      <c r="N273" s="11"/>
-      <c r="O273" s="11"/>
-      <c r="P273" s="11"/>
-      <c r="Q273" s="11"/>
-      <c r="R273" s="11"/>
-      <c r="S273" s="11"/>
-      <c r="T273" s="11"/>
-      <c r="U273" s="11"/>
-      <c r="V273" s="11"/>
-      <c r="W273" s="11"/>
-      <c r="X273" s="11"/>
-      <c r="Y273" s="11"/>
-      <c r="Z273" s="11"/>
-      <c r="AA273" s="11"/>
-      <c r="AB273" s="11"/>
-      <c r="AC273" s="11"/>
-      <c r="AD273" s="11"/>
-      <c r="AE273" s="11"/>
-      <c r="AF273" s="11"/>
-      <c r="AG273" s="9"/>
-      <c r="AH273" s="10"/>
-    </row>
-    <row r="274" spans="1:34">
-      <c r="A274" s="11"/>
-      <c r="B274" s="11"/>
-      <c r="C274" s="11"/>
-      <c r="D274" s="11"/>
-      <c r="E274" s="11"/>
-      <c r="F274" s="11"/>
-      <c r="G274" s="11"/>
-      <c r="H274" s="11"/>
-      <c r="I274" s="11"/>
-      <c r="J274" s="11"/>
-      <c r="K274" s="11"/>
-      <c r="L274" s="11"/>
-      <c r="M274" s="11"/>
-      <c r="N274" s="11"/>
-      <c r="O274" s="11"/>
-      <c r="P274" s="11"/>
-      <c r="Q274" s="11"/>
-      <c r="R274" s="11"/>
-      <c r="S274" s="11"/>
-      <c r="T274" s="11"/>
-      <c r="U274" s="11"/>
-      <c r="V274" s="11"/>
-      <c r="W274" s="11"/>
-      <c r="X274" s="11"/>
-      <c r="Y274" s="11"/>
-      <c r="Z274" s="11"/>
-      <c r="AA274" s="11"/>
-      <c r="AB274" s="11"/>
-      <c r="AC274" s="11"/>
-      <c r="AD274" s="11"/>
-      <c r="AE274" s="11"/>
-      <c r="AF274" s="11"/>
-      <c r="AG274" s="9"/>
-      <c r="AH274" s="10"/>
-    </row>
-    <row r="275" spans="1:34">
-      <c r="A275" s="11"/>
-      <c r="B275" s="11"/>
-      <c r="C275" s="11"/>
-      <c r="D275" s="11"/>
-      <c r="E275" s="11"/>
-      <c r="F275" s="11"/>
-      <c r="G275" s="11"/>
-      <c r="H275" s="11"/>
-      <c r="I275" s="11"/>
-      <c r="J275" s="11"/>
-      <c r="K275" s="11"/>
-      <c r="L275" s="11"/>
-      <c r="M275" s="11"/>
-      <c r="N275" s="11"/>
-      <c r="O275" s="11"/>
-      <c r="P275" s="11"/>
-      <c r="Q275" s="11"/>
-      <c r="R275" s="11"/>
-      <c r="S275" s="11"/>
-      <c r="T275" s="11"/>
-      <c r="U275" s="11"/>
-      <c r="V275" s="11"/>
-      <c r="W275" s="11"/>
-      <c r="X275" s="11"/>
-      <c r="Y275" s="11"/>
-      <c r="Z275" s="11"/>
-      <c r="AA275" s="11"/>
-      <c r="AB275" s="11"/>
-      <c r="AC275" s="11"/>
-      <c r="AD275" s="11"/>
-      <c r="AE275" s="11"/>
-      <c r="AF275" s="11"/>
-      <c r="AG275" s="9"/>
-      <c r="AH275" s="10"/>
-    </row>
-    <row r="276" spans="1:34">
-      <c r="A276" s="11"/>
-      <c r="B276" s="11"/>
-      <c r="C276" s="11"/>
-      <c r="D276" s="11"/>
-      <c r="E276" s="11"/>
-      <c r="F276" s="11"/>
-      <c r="G276" s="11"/>
-      <c r="H276" s="11"/>
-      <c r="I276" s="11"/>
-      <c r="J276" s="11"/>
-      <c r="K276" s="11"/>
-      <c r="L276" s="11"/>
-      <c r="M276" s="11"/>
-      <c r="N276" s="11"/>
-      <c r="O276" s="11"/>
-      <c r="P276" s="11"/>
-      <c r="Q276" s="11"/>
-      <c r="R276" s="11"/>
-      <c r="S276" s="11"/>
-      <c r="T276" s="11"/>
-      <c r="U276" s="11"/>
-      <c r="V276" s="11"/>
-      <c r="W276" s="11"/>
-      <c r="X276" s="11"/>
-      <c r="Y276" s="11"/>
-      <c r="Z276" s="11"/>
-      <c r="AA276" s="11"/>
-      <c r="AB276" s="11"/>
-      <c r="AC276" s="11"/>
-      <c r="AD276" s="11"/>
-      <c r="AE276" s="11"/>
-      <c r="AF276" s="11"/>
-      <c r="AG276" s="9"/>
-      <c r="AH276" s="10"/>
-    </row>
-    <row r="277" spans="1:34">
-      <c r="A277" s="11"/>
-      <c r="B277" s="11"/>
-      <c r="C277" s="11"/>
-      <c r="D277" s="11"/>
-      <c r="E277" s="11"/>
-      <c r="F277" s="11"/>
-      <c r="G277" s="11"/>
-      <c r="H277" s="11"/>
-      <c r="I277" s="11"/>
-      <c r="J277" s="11"/>
-      <c r="K277" s="11"/>
-      <c r="L277" s="11"/>
-      <c r="M277" s="11"/>
-      <c r="N277" s="11"/>
-      <c r="O277" s="11"/>
-      <c r="P277" s="11"/>
-      <c r="Q277" s="11"/>
-      <c r="R277" s="11"/>
-      <c r="S277" s="11"/>
-      <c r="T277" s="11"/>
-      <c r="U277" s="11"/>
-      <c r="V277" s="11"/>
-      <c r="W277" s="11"/>
-      <c r="X277" s="11"/>
-      <c r="Y277" s="11"/>
-      <c r="Z277" s="11"/>
-      <c r="AA277" s="11"/>
-      <c r="AB277" s="11"/>
-      <c r="AC277" s="11"/>
-      <c r="AD277" s="11"/>
-      <c r="AE277" s="11"/>
-      <c r="AF277" s="11"/>
-      <c r="AG277" s="9"/>
-      <c r="AH277" s="10"/>
-    </row>
-    <row r="278" spans="1:34">
-      <c r="A278" s="11"/>
-      <c r="B278" s="11"/>
-      <c r="C278" s="11"/>
-      <c r="D278" s="11"/>
-      <c r="E278" s="11"/>
-      <c r="F278" s="11"/>
-      <c r="G278" s="11"/>
-      <c r="H278" s="11"/>
-      <c r="I278" s="11"/>
-      <c r="J278" s="11"/>
-      <c r="K278" s="11"/>
-      <c r="L278" s="11"/>
-      <c r="M278" s="11"/>
-      <c r="N278" s="11"/>
-      <c r="O278" s="11"/>
-      <c r="P278" s="11"/>
-      <c r="Q278" s="11"/>
-      <c r="R278" s="11"/>
-      <c r="S278" s="11"/>
-      <c r="T278" s="11"/>
-      <c r="U278" s="11"/>
-      <c r="V278" s="11"/>
-      <c r="W278" s="11"/>
-      <c r="X278" s="11"/>
-      <c r="Y278" s="11"/>
-      <c r="Z278" s="11"/>
-      <c r="AA278" s="11"/>
-      <c r="AB278" s="11"/>
-      <c r="AC278" s="11"/>
-      <c r="AD278" s="11"/>
-      <c r="AE278" s="11"/>
-      <c r="AF278" s="11"/>
-      <c r="AG278" s="9"/>
-      <c r="AH278" s="10"/>
-    </row>
-    <row r="279" spans="1:34">
-      <c r="A279" s="11"/>
-      <c r="B279" s="11"/>
-      <c r="C279" s="11"/>
-      <c r="D279" s="11"/>
-      <c r="E279" s="11"/>
-      <c r="F279" s="11"/>
-      <c r="G279" s="11"/>
-      <c r="H279" s="11"/>
-      <c r="I279" s="11"/>
-      <c r="J279" s="11"/>
-      <c r="K279" s="11"/>
-      <c r="L279" s="11"/>
-      <c r="M279" s="11"/>
-      <c r="N279" s="11"/>
-      <c r="O279" s="11"/>
-      <c r="P279" s="11"/>
-      <c r="Q279" s="11"/>
-      <c r="R279" s="11"/>
-      <c r="S279" s="11"/>
-      <c r="T279" s="11"/>
-      <c r="U279" s="11"/>
-      <c r="V279" s="11"/>
-      <c r="W279" s="11"/>
-      <c r="X279" s="11"/>
-      <c r="Y279" s="11"/>
-      <c r="Z279" s="11"/>
-      <c r="AA279" s="11"/>
-      <c r="AB279" s="11"/>
-      <c r="AC279" s="11"/>
-      <c r="AD279" s="11"/>
-      <c r="AE279" s="11"/>
-      <c r="AF279" s="11"/>
-      <c r="AG279" s="9"/>
-      <c r="AH279" s="10"/>
-    </row>
-    <row r="280" spans="1:34">
-      <c r="A280" s="11"/>
-      <c r="B280" s="11"/>
-      <c r="C280" s="11"/>
-      <c r="D280" s="11"/>
-      <c r="E280" s="11"/>
-      <c r="F280" s="11"/>
-      <c r="G280" s="11"/>
-      <c r="H280" s="11"/>
-      <c r="I280" s="11"/>
-      <c r="J280" s="11"/>
-      <c r="K280" s="11"/>
-      <c r="L280" s="11"/>
-      <c r="M280" s="11"/>
-      <c r="N280" s="11"/>
-      <c r="O280" s="11"/>
-      <c r="P280" s="11"/>
-      <c r="Q280" s="11"/>
-      <c r="R280" s="11"/>
-      <c r="S280" s="11"/>
-      <c r="T280" s="11"/>
-      <c r="U280" s="11"/>
-      <c r="V280" s="11"/>
-      <c r="W280" s="11"/>
-      <c r="X280" s="11"/>
-      <c r="Y280" s="11"/>
-      <c r="Z280" s="11"/>
-      <c r="AA280" s="11"/>
-      <c r="AB280" s="11"/>
-      <c r="AC280" s="11"/>
-      <c r="AD280" s="11"/>
-      <c r="AE280" s="11"/>
-      <c r="AF280" s="11"/>
-      <c r="AG280" s="9"/>
-      <c r="AH280" s="10"/>
-    </row>
-    <row r="281" spans="1:34">
-      <c r="A281" s="11"/>
-      <c r="B281" s="11"/>
-      <c r="C281" s="11"/>
-      <c r="D281" s="11"/>
-      <c r="E281" s="11"/>
-      <c r="F281" s="11"/>
-      <c r="G281" s="11"/>
-      <c r="H281" s="11"/>
-      <c r="I281" s="11"/>
-      <c r="J281" s="11"/>
-      <c r="K281" s="11"/>
-      <c r="L281" s="11"/>
-      <c r="M281" s="11"/>
-      <c r="N281" s="11"/>
-      <c r="O281" s="11"/>
-      <c r="P281" s="11"/>
-      <c r="Q281" s="11"/>
-      <c r="R281" s="11"/>
-      <c r="S281" s="11"/>
-      <c r="T281" s="11"/>
-      <c r="U281" s="11"/>
-      <c r="V281" s="11"/>
-      <c r="W281" s="11"/>
-      <c r="X281" s="11"/>
-      <c r="Y281" s="11"/>
-      <c r="Z281" s="11"/>
-      <c r="AA281" s="11"/>
-      <c r="AB281" s="11"/>
-      <c r="AC281" s="11"/>
-      <c r="AD281" s="11"/>
-      <c r="AE281" s="11"/>
-      <c r="AF281" s="11"/>
-      <c r="AG281" s="9"/>
-      <c r="AH281" s="10"/>
-    </row>
-    <row r="282" spans="1:34">
-      <c r="A282" s="11"/>
-      <c r="B282" s="11"/>
-      <c r="C282" s="11"/>
-      <c r="D282" s="11"/>
-      <c r="E282" s="11"/>
-      <c r="F282" s="11"/>
-      <c r="G282" s="11"/>
-      <c r="H282" s="11"/>
-      <c r="I282" s="11"/>
-      <c r="J282" s="11"/>
-      <c r="K282" s="11"/>
-      <c r="L282" s="11"/>
-      <c r="M282" s="11"/>
-      <c r="N282" s="11"/>
-      <c r="O282" s="11"/>
-      <c r="P282" s="11"/>
-      <c r="Q282" s="11"/>
-      <c r="R282" s="11"/>
-      <c r="S282" s="11"/>
-      <c r="T282" s="11"/>
-      <c r="U282" s="11"/>
-      <c r="V282" s="11"/>
-      <c r="W282" s="11"/>
-      <c r="X282" s="11"/>
-      <c r="Y282" s="11"/>
-      <c r="Z282" s="11"/>
-      <c r="AA282" s="11"/>
-      <c r="AB282" s="11"/>
-      <c r="AC282" s="11"/>
-      <c r="AD282" s="11"/>
-      <c r="AE282" s="11"/>
-      <c r="AF282" s="11"/>
-      <c r="AG282" s="9"/>
-      <c r="AH282" s="10"/>
-    </row>
-    <row r="283" spans="1:34">
-      <c r="A283" s="11"/>
-      <c r="B283" s="11"/>
-      <c r="C283" s="11"/>
-      <c r="D283" s="11"/>
-      <c r="E283" s="11"/>
-      <c r="F283" s="11"/>
-      <c r="G283" s="11"/>
-      <c r="H283" s="11"/>
-      <c r="I283" s="11"/>
-      <c r="J283" s="11"/>
-      <c r="K283" s="11"/>
-      <c r="L283" s="11"/>
-      <c r="M283" s="11"/>
-      <c r="N283" s="11"/>
-      <c r="O283" s="11"/>
-      <c r="P283" s="11"/>
-      <c r="Q283" s="11"/>
-      <c r="R283" s="11"/>
-      <c r="S283" s="11"/>
-      <c r="T283" s="11"/>
-      <c r="U283" s="11"/>
-      <c r="V283" s="11"/>
-      <c r="W283" s="11"/>
-      <c r="X283" s="11"/>
-      <c r="Y283" s="11"/>
-      <c r="Z283" s="11"/>
-      <c r="AA283" s="11"/>
-      <c r="AB283" s="11"/>
-      <c r="AC283" s="11"/>
-      <c r="AD283" s="11"/>
-      <c r="AE283" s="11"/>
-      <c r="AF283" s="11"/>
-      <c r="AG283" s="9"/>
-      <c r="AH283" s="10"/>
-    </row>
-    <row r="284" spans="1:34">
-      <c r="A284" s="11"/>
-      <c r="B284" s="11"/>
-      <c r="C284" s="11"/>
-      <c r="D284" s="11"/>
-      <c r="E284" s="11"/>
-      <c r="F284" s="11"/>
-      <c r="G284" s="11"/>
-      <c r="H284" s="11"/>
-      <c r="I284" s="11"/>
-      <c r="J284" s="11"/>
-      <c r="K284" s="11"/>
-      <c r="L284" s="11"/>
-      <c r="M284" s="11"/>
-      <c r="N284" s="11"/>
-      <c r="O284" s="11"/>
-      <c r="P284" s="11"/>
-      <c r="Q284" s="11"/>
-      <c r="R284" s="11"/>
-      <c r="S284" s="11"/>
-      <c r="T284" s="11"/>
-      <c r="U284" s="11"/>
-      <c r="V284" s="11"/>
-      <c r="W284" s="11"/>
-      <c r="X284" s="11"/>
-      <c r="Y284" s="11"/>
-      <c r="Z284" s="11"/>
-      <c r="AA284" s="11"/>
-      <c r="AB284" s="11"/>
-      <c r="AC284" s="11"/>
-      <c r="AD284" s="11"/>
-      <c r="AE284" s="11"/>
-      <c r="AF284" s="11"/>
-      <c r="AG284" s="9"/>
-      <c r="AH284" s="10"/>
-    </row>
-    <row r="285" spans="1:34">
-      <c r="A285" s="11"/>
-      <c r="B285" s="11"/>
-      <c r="C285" s="11"/>
-      <c r="D285" s="11"/>
-      <c r="E285" s="11"/>
-      <c r="F285" s="11"/>
-      <c r="G285" s="11"/>
-      <c r="H285" s="11"/>
-      <c r="I285" s="11"/>
-      <c r="J285" s="11"/>
-      <c r="K285" s="11"/>
-      <c r="L285" s="11"/>
-      <c r="M285" s="11"/>
-      <c r="N285" s="11"/>
-      <c r="O285" s="11"/>
-      <c r="P285" s="11"/>
-      <c r="Q285" s="11"/>
-      <c r="R285" s="11"/>
-      <c r="S285" s="11"/>
-      <c r="T285" s="11"/>
-      <c r="U285" s="11"/>
-      <c r="V285" s="11"/>
-      <c r="W285" s="11"/>
-      <c r="X285" s="11"/>
-      <c r="Y285" s="11"/>
-      <c r="Z285" s="11"/>
-      <c r="AA285" s="11"/>
-      <c r="AB285" s="11"/>
-      <c r="AC285" s="11"/>
-      <c r="AD285" s="11"/>
-      <c r="AE285" s="11"/>
-      <c r="AF285" s="11"/>
-      <c r="AG285" s="9"/>
-      <c r="AH285" s="10"/>
-    </row>
-    <row r="286" spans="1:34">
-      <c r="A286" s="11"/>
-      <c r="B286" s="11"/>
-      <c r="C286" s="11"/>
-      <c r="D286" s="11"/>
-      <c r="E286" s="11"/>
-      <c r="F286" s="11"/>
-      <c r="G286" s="11"/>
-      <c r="H286" s="11"/>
-      <c r="I286" s="11"/>
-      <c r="J286" s="11"/>
-      <c r="K286" s="11"/>
-      <c r="L286" s="11"/>
-      <c r="M286" s="11"/>
-      <c r="N286" s="11"/>
-      <c r="O286" s="11"/>
-      <c r="P286" s="11"/>
-      <c r="Q286" s="11"/>
-      <c r="R286" s="11"/>
-      <c r="S286" s="11"/>
-      <c r="T286" s="11"/>
-      <c r="U286" s="11"/>
-      <c r="V286" s="11"/>
-      <c r="W286" s="11"/>
-      <c r="X286" s="11"/>
-      <c r="Y286" s="11"/>
-      <c r="Z286" s="11"/>
-      <c r="AA286" s="11"/>
-      <c r="AB286" s="11"/>
-      <c r="AC286" s="11"/>
-      <c r="AD286" s="11"/>
-      <c r="AE286" s="11"/>
-      <c r="AF286" s="11"/>
-      <c r="AG286" s="9"/>
-      <c r="AH286" s="10"/>
-    </row>
-    <row r="287" spans="1:34">
-      <c r="A287" s="11"/>
-      <c r="B287" s="11"/>
-      <c r="C287" s="11"/>
-      <c r="D287" s="11"/>
-      <c r="E287" s="11"/>
-      <c r="F287" s="11"/>
-      <c r="G287" s="11"/>
-      <c r="H287" s="11"/>
-      <c r="I287" s="11"/>
-      <c r="J287" s="11"/>
-      <c r="K287" s="11"/>
-      <c r="L287" s="11"/>
-      <c r="M287" s="11"/>
-      <c r="N287" s="11"/>
-      <c r="O287" s="11"/>
-      <c r="P287" s="11"/>
-      <c r="Q287" s="11"/>
-      <c r="R287" s="11"/>
-      <c r="S287" s="11"/>
-      <c r="T287" s="11"/>
-      <c r="U287" s="11"/>
-      <c r="V287" s="11"/>
-      <c r="W287" s="11"/>
-      <c r="X287" s="11"/>
-      <c r="Y287" s="11"/>
-      <c r="Z287" s="11"/>
-      <c r="AA287" s="11"/>
-      <c r="AB287" s="11"/>
-      <c r="AC287" s="11"/>
-      <c r="AD287" s="11"/>
-      <c r="AE287" s="11"/>
-      <c r="AF287" s="11"/>
-      <c r="AG287" s="9"/>
-      <c r="AH287" s="10"/>
-    </row>
-    <row r="288" spans="1:34">
-      <c r="A288" s="11"/>
-      <c r="B288" s="11"/>
-      <c r="C288" s="11"/>
-      <c r="D288" s="11"/>
-      <c r="E288" s="11"/>
-      <c r="F288" s="11"/>
-      <c r="G288" s="11"/>
-      <c r="H288" s="11"/>
-      <c r="I288" s="11"/>
-      <c r="J288" s="11"/>
-      <c r="K288" s="11"/>
-      <c r="L288" s="11"/>
-      <c r="M288" s="11"/>
-      <c r="N288" s="11"/>
-      <c r="O288" s="11"/>
-      <c r="P288" s="11"/>
-      <c r="Q288" s="11"/>
-      <c r="R288" s="11"/>
-      <c r="S288" s="11"/>
-      <c r="T288" s="11"/>
-      <c r="U288" s="11"/>
-      <c r="V288" s="11"/>
-      <c r="W288" s="11"/>
-      <c r="X288" s="11"/>
-      <c r="Y288" s="11"/>
-      <c r="Z288" s="11"/>
-      <c r="AA288" s="11"/>
-      <c r="AB288" s="11"/>
-      <c r="AC288" s="11"/>
-      <c r="AD288" s="11"/>
-      <c r="AE288" s="11"/>
-      <c r="AF288" s="11"/>
-      <c r="AG288" s="9"/>
-      <c r="AH288" s="10"/>
-    </row>
-    <row r="289" spans="1:34">
-      <c r="A289" s="11"/>
-      <c r="B289" s="11"/>
-      <c r="C289" s="11"/>
-      <c r="D289" s="11"/>
-      <c r="E289" s="11"/>
-      <c r="F289" s="11"/>
-      <c r="G289" s="11"/>
-      <c r="H289" s="11"/>
-      <c r="I289" s="11"/>
-      <c r="J289" s="11"/>
-      <c r="K289" s="11"/>
-      <c r="L289" s="11"/>
-      <c r="M289" s="11"/>
-      <c r="N289" s="11"/>
-      <c r="O289" s="11"/>
-      <c r="P289" s="11"/>
-      <c r="Q289" s="11"/>
-      <c r="R289" s="11"/>
-      <c r="S289" s="11"/>
-      <c r="T289" s="11"/>
-      <c r="U289" s="11"/>
-      <c r="V289" s="11"/>
-      <c r="W289" s="11"/>
-      <c r="X289" s="11"/>
-      <c r="Y289" s="11"/>
-      <c r="Z289" s="11"/>
-      <c r="AA289" s="11"/>
-      <c r="AB289" s="11"/>
-      <c r="AC289" s="11"/>
-      <c r="AD289" s="11"/>
-      <c r="AE289" s="11"/>
-      <c r="AF289" s="11"/>
-      <c r="AG289" s="9"/>
-      <c r="AH289" s="10"/>
-    </row>
-    <row r="290" spans="1:34">
-      <c r="A290" s="4"/>
-      <c r="B290" s="4"/>
-      <c r="C290" s="4"/>
-      <c r="D290" s="4"/>
-      <c r="E290" s="4"/>
-      <c r="F290" s="4"/>
-      <c r="G290" s="4"/>
-      <c r="H290" s="4"/>
-      <c r="I290" s="4"/>
-      <c r="J290" s="4"/>
-      <c r="K290" s="4"/>
-      <c r="L290" s="4"/>
-      <c r="M290" s="4"/>
-      <c r="N290" s="4"/>
-      <c r="O290" s="4"/>
-      <c r="P290" s="4"/>
-      <c r="Q290" s="4"/>
-      <c r="R290" s="4"/>
-      <c r="S290" s="4"/>
-      <c r="T290" s="4"/>
-      <c r="U290" s="4"/>
-      <c r="V290" s="4"/>
-      <c r="W290" s="4"/>
-      <c r="X290" s="4"/>
-      <c r="Y290" s="4"/>
-      <c r="Z290" s="4"/>
-      <c r="AA290" s="4"/>
-      <c r="AB290" s="4"/>
-      <c r="AC290" s="4"/>
-      <c r="AD290" s="4"/>
-      <c r="AE290" s="4"/>
-      <c r="AF290" s="4"/>
-      <c r="AG290" s="9"/>
-      <c r="AH290" s="10"/>
-    </row>
-    <row r="291" spans="1:34">
-      <c r="A291" s="4"/>
-      <c r="B291" s="4"/>
-      <c r="C291" s="4"/>
-      <c r="D291" s="4"/>
-      <c r="E291" s="4"/>
-      <c r="F291" s="4"/>
-      <c r="G291" s="4"/>
-      <c r="H291" s="4"/>
-      <c r="I291" s="4"/>
-      <c r="J291" s="4"/>
-      <c r="K291" s="4"/>
-      <c r="L291" s="4"/>
-      <c r="M291" s="4"/>
-      <c r="N291" s="4"/>
-      <c r="O291" s="4"/>
-      <c r="P291" s="4"/>
-      <c r="Q291" s="4"/>
-      <c r="R291" s="4"/>
-      <c r="S291" s="4"/>
-      <c r="T291" s="4"/>
-      <c r="U291" s="4"/>
-      <c r="V291" s="4"/>
-      <c r="W291" s="4"/>
-      <c r="X291" s="4"/>
-      <c r="Y291" s="4"/>
-      <c r="Z291" s="4"/>
-      <c r="AA291" s="4"/>
-      <c r="AB291" s="4"/>
-      <c r="AC291" s="4"/>
-      <c r="AD291" s="4"/>
-      <c r="AE291" s="4"/>
-      <c r="AF291" s="4"/>
-      <c r="AG291" s="9"/>
-      <c r="AH291" s="10"/>
-    </row>
-    <row r="292" spans="1:34">
-      <c r="A292" s="4"/>
-      <c r="B292" s="4"/>
-      <c r="C292" s="4"/>
-      <c r="D292" s="4"/>
-      <c r="E292" s="4"/>
-      <c r="F292" s="4"/>
-      <c r="G292" s="4"/>
-      <c r="H292" s="4"/>
-      <c r="I292" s="4"/>
-      <c r="J292" s="4"/>
-      <c r="K292" s="4"/>
-      <c r="L292" s="4"/>
-      <c r="M292" s="4"/>
-      <c r="N292" s="4"/>
-      <c r="O292" s="4"/>
-      <c r="P292" s="4"/>
-      <c r="Q292" s="4"/>
-      <c r="R292" s="4"/>
-      <c r="S292" s="4"/>
-      <c r="T292" s="4"/>
-      <c r="U292" s="4"/>
-      <c r="V292" s="4"/>
-      <c r="W292" s="4"/>
-      <c r="X292" s="4"/>
-      <c r="Y292" s="4"/>
-      <c r="Z292" s="4"/>
-      <c r="AA292" s="4"/>
-      <c r="AB292" s="4"/>
-      <c r="AC292" s="4"/>
-      <c r="AD292" s="4"/>
-      <c r="AE292" s="4"/>
-      <c r="AF292" s="4"/>
-      <c r="AG292" s="9"/>
-      <c r="AH292" s="10"/>
-    </row>
-    <row r="293" spans="1:34">
-      <c r="A293" s="4"/>
-      <c r="B293" s="4"/>
-      <c r="C293" s="4"/>
-      <c r="D293" s="4"/>
-      <c r="E293" s="4"/>
-      <c r="F293" s="4"/>
-      <c r="G293" s="4"/>
-      <c r="H293" s="4"/>
-      <c r="I293" s="4"/>
-      <c r="J293" s="4"/>
-      <c r="K293" s="4"/>
-      <c r="L293" s="4"/>
-      <c r="M293" s="4"/>
-      <c r="N293" s="4"/>
-      <c r="O293" s="4"/>
-      <c r="P293" s="4"/>
-      <c r="Q293" s="4"/>
-      <c r="R293" s="4"/>
-      <c r="S293" s="4"/>
-      <c r="T293" s="4"/>
-      <c r="U293" s="4"/>
-      <c r="V293" s="4"/>
-      <c r="W293" s="4"/>
-      <c r="X293" s="4"/>
-      <c r="Y293" s="4"/>
-      <c r="Z293" s="4"/>
-      <c r="AA293" s="4"/>
-      <c r="AB293" s="4"/>
-      <c r="AC293" s="4"/>
-      <c r="AD293" s="4"/>
-      <c r="AE293" s="4"/>
-      <c r="AF293" s="4"/>
-      <c r="AG293" s="9"/>
-      <c r="AH293" s="10"/>
-    </row>
-    <row r="294" spans="1:34">
-      <c r="A294" s="4"/>
-      <c r="B294" s="4"/>
-      <c r="C294" s="4"/>
-      <c r="D294" s="4"/>
-      <c r="E294" s="4"/>
-      <c r="F294" s="4"/>
-      <c r="G294" s="4"/>
-      <c r="H294" s="4"/>
-      <c r="I294" s="4"/>
-      <c r="J294" s="4"/>
-      <c r="K294" s="4"/>
-      <c r="L294" s="4"/>
-      <c r="M294" s="4"/>
-      <c r="N294" s="4"/>
-      <c r="O294" s="4"/>
-      <c r="P294" s="4"/>
-      <c r="Q294" s="4"/>
-      <c r="R294" s="4"/>
-      <c r="S294" s="4"/>
-      <c r="T294" s="4"/>
-      <c r="U294" s="4"/>
-      <c r="V294" s="4"/>
-      <c r="W294" s="4"/>
-      <c r="X294" s="4"/>
-      <c r="Y294" s="4"/>
-      <c r="Z294" s="4"/>
-      <c r="AA294" s="4"/>
-      <c r="AB294" s="4"/>
-      <c r="AC294" s="4"/>
-      <c r="AD294" s="4"/>
-      <c r="AE294" s="4"/>
-      <c r="AF294" s="4"/>
-      <c r="AG294" s="9"/>
-      <c r="AH294" s="10"/>
-    </row>
-    <row r="295" spans="1:34">
-      <c r="A295" s="4"/>
-      <c r="B295" s="4"/>
-      <c r="C295" s="4"/>
-      <c r="D295" s="4"/>
-      <c r="E295" s="4"/>
-      <c r="F295" s="4"/>
-      <c r="G295" s="4"/>
-      <c r="H295" s="4"/>
-      <c r="I295" s="4"/>
-      <c r="J295" s="4"/>
-      <c r="K295" s="4"/>
-      <c r="L295" s="4"/>
-      <c r="M295" s="4"/>
-      <c r="N295" s="4"/>
-      <c r="O295" s="4"/>
-      <c r="P295" s="4"/>
-      <c r="Q295" s="4"/>
-      <c r="R295" s="4"/>
-      <c r="S295" s="4"/>
-      <c r="T295" s="4"/>
-      <c r="U295" s="4"/>
-      <c r="V295" s="4"/>
-      <c r="W295" s="4"/>
-      <c r="X295" s="4"/>
-      <c r="Y295" s="4"/>
-      <c r="Z295" s="4"/>
-      <c r="AA295" s="4"/>
-      <c r="AB295" s="4"/>
-      <c r="AC295" s="4"/>
-      <c r="AD295" s="4"/>
-      <c r="AE295" s="4"/>
-      <c r="AF295" s="4"/>
-      <c r="AG295" s="9"/>
-      <c r="AH295" s="10"/>
-    </row>
-    <row r="296" spans="1:34">
-      <c r="A296" s="4"/>
-      <c r="B296" s="4"/>
-      <c r="C296" s="4"/>
-      <c r="D296" s="4"/>
-      <c r="E296" s="4"/>
-      <c r="F296" s="4"/>
-      <c r="G296" s="4"/>
-      <c r="H296" s="4"/>
-      <c r="I296" s="4"/>
-      <c r="J296" s="4"/>
-      <c r="K296" s="4"/>
-      <c r="L296" s="4"/>
-      <c r="M296" s="4"/>
-      <c r="N296" s="4"/>
-      <c r="O296" s="4"/>
-      <c r="P296" s="4"/>
-      <c r="Q296" s="4"/>
-      <c r="R296" s="4"/>
-      <c r="S296" s="4"/>
-      <c r="T296" s="4"/>
-      <c r="U296" s="4"/>
-      <c r="V296" s="4"/>
-      <c r="W296" s="4"/>
-      <c r="X296" s="4"/>
-      <c r="Y296" s="4"/>
-      <c r="Z296" s="4"/>
-      <c r="AA296" s="4"/>
-      <c r="AB296" s="4"/>
-      <c r="AC296" s="4"/>
-      <c r="AD296" s="4"/>
-      <c r="AE296" s="4"/>
-      <c r="AF296" s="4"/>
-      <c r="AG296" s="9"/>
-      <c r="AH296" s="10"/>
-    </row>
-    <row r="297" spans="1:34">
-      <c r="A297" s="4"/>
-      <c r="B297" s="4"/>
-      <c r="C297" s="4"/>
-      <c r="D297" s="4"/>
-      <c r="E297" s="4"/>
-      <c r="F297" s="4"/>
-      <c r="G297" s="4"/>
-      <c r="H297" s="4"/>
-      <c r="I297" s="4"/>
-      <c r="J297" s="4"/>
-      <c r="K297" s="4"/>
-      <c r="L297" s="4"/>
-      <c r="M297" s="4"/>
-      <c r="N297" s="4"/>
-      <c r="O297" s="4"/>
-      <c r="P297" s="4"/>
-      <c r="Q297" s="4"/>
-      <c r="R297" s="4"/>
-      <c r="S297" s="4"/>
-      <c r="T297" s="4"/>
-      <c r="U297" s="4"/>
-      <c r="V297" s="4"/>
-      <c r="W297" s="4"/>
-      <c r="X297" s="4"/>
-      <c r="Y297" s="4"/>
-      <c r="Z297" s="4"/>
-      <c r="AA297" s="4"/>
-      <c r="AB297" s="4"/>
-      <c r="AC297" s="4"/>
-      <c r="AD297" s="4"/>
-      <c r="AE297" s="4"/>
-      <c r="AF297" s="4"/>
-      <c r="AG297" s="9"/>
-      <c r="AH297" s="10"/>
-    </row>
-    <row r="298" spans="1:34">
-      <c r="A298" s="4"/>
-      <c r="B298" s="4"/>
-      <c r="C298" s="4"/>
-      <c r="D298" s="4"/>
-      <c r="E298" s="4"/>
-      <c r="F298" s="4"/>
-      <c r="G298" s="4"/>
-      <c r="H298" s="4"/>
-      <c r="I298" s="4"/>
-      <c r="J298" s="4"/>
-      <c r="K298" s="4"/>
-      <c r="L298" s="4"/>
-      <c r="M298" s="4"/>
-      <c r="N298" s="4"/>
-      <c r="O298" s="4"/>
-      <c r="P298" s="4"/>
-      <c r="Q298" s="4"/>
-      <c r="R298" s="4"/>
-      <c r="S298" s="4"/>
-      <c r="T298" s="4"/>
-      <c r="U298" s="4"/>
-      <c r="V298" s="4"/>
-      <c r="W298" s="4"/>
-      <c r="X298" s="4"/>
-      <c r="Y298" s="4"/>
-      <c r="Z298" s="4"/>
-      <c r="AA298" s="4"/>
-      <c r="AB298" s="4"/>
-      <c r="AC298" s="4"/>
-      <c r="AD298" s="4"/>
-      <c r="AE298" s="4"/>
-      <c r="AF298" s="4"/>
-      <c r="AG298" s="9"/>
-      <c r="AH298" s="10"/>
-    </row>
-    <row r="299" spans="1:34">
-      <c r="A299" s="4"/>
-      <c r="B299" s="4"/>
-      <c r="C299" s="4"/>
-      <c r="D299" s="4"/>
-      <c r="E299" s="4"/>
-      <c r="F299" s="4"/>
-      <c r="G299" s="4"/>
-      <c r="H299" s="4"/>
-      <c r="I299" s="4"/>
-      <c r="J299" s="4"/>
-      <c r="K299" s="4"/>
-      <c r="L299" s="4"/>
-      <c r="M299" s="4"/>
-      <c r="N299" s="4"/>
-      <c r="O299" s="4"/>
-      <c r="P299" s="4"/>
-      <c r="Q299" s="4"/>
-      <c r="R299" s="4"/>
-      <c r="S299" s="4"/>
-      <c r="T299" s="4"/>
-      <c r="U299" s="4"/>
-      <c r="V299" s="4"/>
-      <c r="W299" s="4"/>
-      <c r="X299" s="4"/>
-      <c r="Y299" s="4"/>
-      <c r="Z299" s="4"/>
-      <c r="AA299" s="4"/>
-      <c r="AB299" s="4"/>
-      <c r="AC299" s="4"/>
-      <c r="AD299" s="4"/>
-      <c r="AE299" s="4"/>
-      <c r="AF299" s="4"/>
-      <c r="AG299" s="9"/>
-      <c r="AH299" s="10"/>
-    </row>
-    <row r="300" spans="1:34">
-      <c r="A300" s="4"/>
-      <c r="B300" s="4"/>
-      <c r="C300" s="4"/>
-      <c r="D300" s="4"/>
-      <c r="E300" s="4"/>
-      <c r="F300" s="4"/>
-      <c r="G300" s="4"/>
-      <c r="H300" s="4"/>
-      <c r="I300" s="4"/>
-      <c r="J300" s="4"/>
-      <c r="K300" s="4"/>
-      <c r="L300" s="4"/>
-      <c r="M300" s="4"/>
-      <c r="N300" s="4"/>
-      <c r="O300" s="4"/>
-      <c r="P300" s="4"/>
-      <c r="Q300" s="4"/>
-      <c r="R300" s="4"/>
-      <c r="S300" s="4"/>
-      <c r="T300" s="4"/>
-      <c r="U300" s="4"/>
-      <c r="V300" s="4"/>
-      <c r="W300" s="4"/>
-      <c r="X300" s="4"/>
-      <c r="Y300" s="4"/>
-      <c r="Z300" s="4"/>
-      <c r="AA300" s="4"/>
-      <c r="AB300" s="4"/>
-      <c r="AC300" s="4"/>
-      <c r="AD300" s="4"/>
-      <c r="AE300" s="4"/>
-      <c r="AF300" s="4"/>
-      <c r="AG300" s="9"/>
-      <c r="AH300" s="10"/>
-    </row>
-    <row r="301" spans="1:34">
-      <c r="A301" s="4"/>
-      <c r="B301" s="4"/>
-      <c r="C301" s="4"/>
-      <c r="D301" s="4"/>
-      <c r="E301" s="4"/>
-      <c r="F301" s="4"/>
-      <c r="G301" s="4"/>
-      <c r="H301" s="4"/>
-      <c r="I301" s="4"/>
-      <c r="J301" s="4"/>
-      <c r="K301" s="4"/>
-      <c r="L301" s="4"/>
-      <c r="M301" s="4"/>
-      <c r="N301" s="4"/>
-      <c r="O301" s="4"/>
-      <c r="P301" s="4"/>
-      <c r="Q301" s="4"/>
-      <c r="R301" s="4"/>
-      <c r="S301" s="4"/>
-      <c r="T301" s="4"/>
-      <c r="U301" s="4"/>
-      <c r="V301" s="4"/>
-      <c r="W301" s="4"/>
-      <c r="X301" s="4"/>
-      <c r="Y301" s="4"/>
-      <c r="Z301" s="4"/>
-      <c r="AA301" s="4"/>
-      <c r="AB301" s="4"/>
-      <c r="AC301" s="4"/>
-      <c r="AD301" s="4"/>
-      <c r="AE301" s="4"/>
-      <c r="AF301" s="4"/>
-      <c r="AG301" s="9"/>
-      <c r="AH301" s="10"/>
-    </row>
-    <row r="302" spans="1:34">
-      <c r="A302" s="4"/>
-      <c r="B302" s="4"/>
-      <c r="C302" s="4"/>
-      <c r="D302" s="4"/>
-      <c r="E302" s="4"/>
-      <c r="F302" s="4"/>
-      <c r="G302" s="4"/>
-      <c r="H302" s="4"/>
-      <c r="I302" s="4"/>
-      <c r="J302" s="4"/>
-      <c r="K302" s="4"/>
-      <c r="L302" s="4"/>
-      <c r="M302" s="4"/>
-      <c r="N302" s="4"/>
-      <c r="O302" s="4"/>
-      <c r="P302" s="4"/>
-      <c r="Q302" s="4"/>
-      <c r="R302" s="4"/>
-      <c r="S302" s="4"/>
-      <c r="T302" s="4"/>
-      <c r="U302" s="4"/>
-      <c r="V302" s="4"/>
-      <c r="W302" s="4"/>
-      <c r="X302" s="4"/>
-      <c r="Y302" s="4"/>
-      <c r="Z302" s="4"/>
-      <c r="AA302" s="4"/>
-      <c r="AB302" s="4"/>
-      <c r="AC302" s="4"/>
-      <c r="AD302" s="4"/>
-      <c r="AE302" s="4"/>
-      <c r="AF302" s="4"/>
-      <c r="AG302" s="9"/>
-      <c r="AH302" s="10"/>
-    </row>
-    <row r="303" spans="1:34">
-      <c r="A303" s="4"/>
-      <c r="B303" s="4"/>
-      <c r="C303" s="4"/>
-      <c r="D303" s="4"/>
-      <c r="E303" s="4"/>
-      <c r="F303" s="4"/>
-      <c r="G303" s="4"/>
-      <c r="H303" s="4"/>
-      <c r="I303" s="4"/>
-      <c r="J303" s="4"/>
-      <c r="K303" s="4"/>
-      <c r="L303" s="4"/>
-      <c r="M303" s="4"/>
-      <c r="N303" s="4"/>
-      <c r="O303" s="4"/>
-      <c r="P303" s="4"/>
-      <c r="Q303" s="4"/>
-      <c r="R303" s="4"/>
-      <c r="S303" s="4"/>
-      <c r="T303" s="4"/>
-      <c r="U303" s="4"/>
-      <c r="V303" s="4"/>
-      <c r="W303" s="4"/>
-      <c r="X303" s="4"/>
-      <c r="Y303" s="4"/>
-      <c r="Z303" s="4"/>
-      <c r="AA303" s="4"/>
-      <c r="AB303" s="4"/>
-      <c r="AC303" s="4"/>
-      <c r="AD303" s="4"/>
-      <c r="AE303" s="4"/>
-      <c r="AF303" s="4"/>
-      <c r="AG303" s="9"/>
-      <c r="AH303" s="10"/>
-    </row>
-    <row r="304" spans="1:34">
-      <c r="A304" s="4"/>
-      <c r="B304" s="4"/>
-      <c r="C304" s="4"/>
-      <c r="D304" s="4"/>
-      <c r="E304" s="4"/>
-      <c r="F304" s="4"/>
-      <c r="G304" s="4"/>
-      <c r="H304" s="4"/>
-      <c r="I304" s="4"/>
-      <c r="J304" s="4"/>
-      <c r="K304" s="4"/>
-      <c r="L304" s="4"/>
-      <c r="M304" s="4"/>
-      <c r="N304" s="4"/>
-      <c r="O304" s="4"/>
-      <c r="P304" s="4"/>
-      <c r="Q304" s="4"/>
-      <c r="R304" s="4"/>
-      <c r="S304" s="4"/>
-      <c r="T304" s="4"/>
-      <c r="U304" s="4"/>
-      <c r="V304" s="4"/>
-      <c r="W304" s="4"/>
-      <c r="X304" s="4"/>
-      <c r="Y304" s="4"/>
-      <c r="Z304" s="4"/>
-      <c r="AA304" s="4"/>
-      <c r="AB304" s="4"/>
-      <c r="AC304" s="4"/>
-      <c r="AD304" s="4"/>
-      <c r="AE304" s="4"/>
-      <c r="AF304" s="4"/>
-      <c r="AG304" s="9"/>
-      <c r="AH304" s="10"/>
-    </row>
-    <row r="305" spans="1:34">
-      <c r="A305" s="4"/>
-      <c r="B305" s="4"/>
-      <c r="C305" s="4"/>
-      <c r="D305" s="4"/>
-      <c r="E305" s="4"/>
-      <c r="F305" s="4"/>
-      <c r="G305" s="4"/>
-      <c r="H305" s="4"/>
-      <c r="I305" s="4"/>
-      <c r="J305" s="4"/>
-      <c r="K305" s="4"/>
-      <c r="L305" s="4"/>
-      <c r="M305" s="4"/>
-      <c r="N305" s="4"/>
-      <c r="O305" s="4"/>
-      <c r="P305" s="4"/>
-      <c r="Q305" s="4"/>
-      <c r="R305" s="4"/>
-      <c r="S305" s="4"/>
-      <c r="T305" s="4"/>
-      <c r="U305" s="4"/>
-      <c r="V305" s="4"/>
-      <c r="W305" s="4"/>
-      <c r="X305" s="4"/>
-      <c r="Y305" s="4"/>
-      <c r="Z305" s="4"/>
-      <c r="AA305" s="4"/>
-      <c r="AB305" s="4"/>
-      <c r="AC305" s="4"/>
-      <c r="AD305" s="4"/>
-      <c r="AE305" s="4"/>
-      <c r="AF305" s="4"/>
-      <c r="AG305" s="9"/>
-      <c r="AH305" s="10"/>
-    </row>
-    <row r="306" spans="1:34">
-      <c r="A306" s="4"/>
-      <c r="B306" s="4"/>
-      <c r="C306" s="4"/>
-      <c r="D306" s="4"/>
-      <c r="E306" s="4"/>
-      <c r="F306" s="4"/>
-      <c r="G306" s="4"/>
-      <c r="H306" s="4"/>
-      <c r="I306" s="4"/>
-      <c r="J306" s="4"/>
-      <c r="K306" s="4"/>
-      <c r="L306" s="4"/>
-      <c r="M306" s="4"/>
-      <c r="N306" s="4"/>
-      <c r="O306" s="4"/>
-      <c r="P306" s="4"/>
-      <c r="Q306" s="4"/>
-      <c r="R306" s="4"/>
-      <c r="S306" s="4"/>
-      <c r="T306" s="4"/>
-      <c r="U306" s="4"/>
-      <c r="V306" s="4"/>
-      <c r="W306" s="4"/>
-      <c r="X306" s="4"/>
-      <c r="Y306" s="4"/>
-      <c r="Z306" s="4"/>
-      <c r="AA306" s="4"/>
-      <c r="AB306" s="4"/>
-      <c r="AC306" s="4"/>
-      <c r="AD306" s="4"/>
-      <c r="AE306" s="4"/>
-      <c r="AF306" s="4"/>
-      <c r="AG306" s="9"/>
-      <c r="AH306" s="10"/>
-    </row>
-    <row r="307" spans="1:34">
-      <c r="A307" s="4"/>
-      <c r="B307" s="4"/>
-      <c r="C307" s="4"/>
-      <c r="D307" s="4"/>
-      <c r="E307" s="4"/>
-      <c r="F307" s="4"/>
-      <c r="G307" s="4"/>
-      <c r="H307" s="4"/>
-      <c r="I307" s="4"/>
-      <c r="J307" s="4"/>
-      <c r="K307" s="4"/>
-      <c r="L307" s="4"/>
-      <c r="M307" s="4"/>
-      <c r="N307" s="4"/>
-      <c r="O307" s="4"/>
-      <c r="P307" s="4"/>
-      <c r="Q307" s="4"/>
-      <c r="R307" s="4"/>
-      <c r="S307" s="4"/>
-      <c r="T307" s="4"/>
-      <c r="U307" s="4"/>
-      <c r="V307" s="4"/>
-      <c r="W307" s="4"/>
-      <c r="X307" s="4"/>
-      <c r="Y307" s="4"/>
-      <c r="Z307" s="4"/>
-      <c r="AA307" s="4"/>
-      <c r="AB307" s="4"/>
-      <c r="AC307" s="4"/>
-      <c r="AD307" s="4"/>
-      <c r="AE307" s="4"/>
-      <c r="AF307" s="4"/>
-      <c r="AG307" s="9"/>
-      <c r="AH307" s="10"/>
-    </row>
-    <row r="308" spans="1:34">
-      <c r="A308" s="4"/>
-      <c r="B308" s="4"/>
-      <c r="C308" s="4"/>
-      <c r="D308" s="4"/>
-      <c r="E308" s="4"/>
-      <c r="F308" s="4"/>
-      <c r="G308" s="4"/>
-      <c r="H308" s="4"/>
-      <c r="I308" s="4"/>
-      <c r="J308" s="4"/>
-      <c r="K308" s="4"/>
-      <c r="L308" s="4"/>
-      <c r="M308" s="4"/>
-      <c r="N308" s="4"/>
-      <c r="O308" s="4"/>
-      <c r="P308" s="4"/>
-      <c r="Q308" s="4"/>
-      <c r="R308" s="4"/>
-      <c r="S308" s="4"/>
-      <c r="T308" s="4"/>
-      <c r="U308" s="4"/>
-      <c r="V308" s="4"/>
-      <c r="W308" s="4"/>
-      <c r="X308" s="4"/>
-      <c r="Y308" s="4"/>
-      <c r="Z308" s="4"/>
-      <c r="AA308" s="4"/>
-      <c r="AB308" s="4"/>
-      <c r="AC308" s="4"/>
-      <c r="AD308" s="4"/>
-      <c r="AE308" s="4"/>
-      <c r="AF308" s="4"/>
-      <c r="AG308" s="9"/>
-      <c r="AH308" s="10"/>
-    </row>
-    <row r="309" spans="1:34">
-      <c r="A309" s="4"/>
-      <c r="B309" s="4"/>
-      <c r="C309" s="4"/>
-      <c r="D309" s="4"/>
-      <c r="E309" s="4"/>
-      <c r="F309" s="4"/>
-      <c r="G309" s="4"/>
-      <c r="H309" s="4"/>
-      <c r="I309" s="4"/>
-      <c r="J309" s="4"/>
-      <c r="K309" s="4"/>
-      <c r="L309" s="4"/>
-      <c r="M309" s="4"/>
-      <c r="N309" s="4"/>
-      <c r="O309" s="4"/>
-      <c r="P309" s="4"/>
-      <c r="Q309" s="4"/>
-      <c r="R309" s="4"/>
-      <c r="S309" s="4"/>
-      <c r="T309" s="4"/>
-      <c r="U309" s="4"/>
-      <c r="V309" s="4"/>
-      <c r="W309" s="4"/>
-      <c r="X309" s="4"/>
-      <c r="Y309" s="4"/>
-      <c r="Z309" s="4"/>
-      <c r="AA309" s="4"/>
-      <c r="AB309" s="4"/>
-      <c r="AC309" s="4"/>
-      <c r="AD309" s="4"/>
-      <c r="AE309" s="4"/>
-      <c r="AF309" s="4"/>
-      <c r="AG309" s="9"/>
-      <c r="AH309" s="10"/>
-    </row>
-    <row r="310" spans="1:34">
-      <c r="A310" s="4"/>
-      <c r="B310" s="4"/>
-      <c r="C310" s="4"/>
-      <c r="D310" s="4"/>
-      <c r="E310" s="4"/>
-      <c r="F310" s="4"/>
-      <c r="G310" s="4"/>
-      <c r="H310" s="4"/>
-      <c r="I310" s="4"/>
-      <c r="J310" s="4"/>
-      <c r="K310" s="4"/>
-      <c r="L310" s="4"/>
-      <c r="M310" s="4"/>
-      <c r="N310" s="4"/>
-      <c r="O310" s="4"/>
-      <c r="P310" s="4"/>
-      <c r="Q310" s="4"/>
-      <c r="R310" s="4"/>
-      <c r="S310" s="4"/>
-      <c r="T310" s="4"/>
-      <c r="U310" s="4"/>
-      <c r="V310" s="4"/>
-      <c r="W310" s="4"/>
-      <c r="X310" s="4"/>
-      <c r="Y310" s="4"/>
-      <c r="Z310" s="4"/>
-      <c r="AA310" s="4"/>
-      <c r="AB310" s="4"/>
-      <c r="AC310" s="4"/>
-      <c r="AD310" s="4"/>
-      <c r="AE310" s="4"/>
-      <c r="AF310" s="4"/>
-      <c r="AG310" s="9"/>
-      <c r="AH310" s="10"/>
-    </row>
-    <row r="311" spans="1:34">
-      <c r="A311" s="4"/>
-      <c r="B311" s="4"/>
-      <c r="C311" s="4"/>
-      <c r="D311" s="4"/>
-      <c r="E311" s="4"/>
-      <c r="F311" s="4"/>
-      <c r="G311" s="4"/>
-      <c r="H311" s="4"/>
-      <c r="I311" s="4"/>
-      <c r="J311" s="4"/>
-      <c r="K311" s="4"/>
-      <c r="L311" s="4"/>
-      <c r="M311" s="4"/>
-      <c r="N311" s="4"/>
-      <c r="O311" s="4"/>
-      <c r="P311" s="4"/>
-      <c r="Q311" s="4"/>
-      <c r="R311" s="4"/>
-      <c r="S311" s="4"/>
-      <c r="T311" s="4"/>
-      <c r="U311" s="4"/>
-      <c r="V311" s="4"/>
-      <c r="W311" s="4"/>
-      <c r="X311" s="4"/>
-      <c r="Y311" s="4"/>
-      <c r="Z311" s="4"/>
-      <c r="AA311" s="4"/>
-      <c r="AB311" s="4"/>
-      <c r="AC311" s="4"/>
-      <c r="AD311" s="4"/>
-      <c r="AE311" s="4"/>
-      <c r="AF311" s="4"/>
-      <c r="AG311" s="9"/>
-      <c r="AH311" s="10"/>
-    </row>
-    <row r="312" spans="1:34">
-      <c r="A312" s="4"/>
-      <c r="B312" s="4"/>
-      <c r="C312" s="4"/>
-      <c r="D312" s="4"/>
-      <c r="E312" s="4"/>
-      <c r="F312" s="4"/>
-      <c r="G312" s="4"/>
-      <c r="H312" s="4"/>
-      <c r="I312" s="4"/>
-      <c r="J312" s="4"/>
-      <c r="K312" s="4"/>
-      <c r="L312" s="4"/>
-      <c r="M312" s="4"/>
-      <c r="N312" s="4"/>
-      <c r="O312" s="4"/>
-      <c r="P312" s="4"/>
-      <c r="Q312" s="4"/>
-      <c r="R312" s="4"/>
-      <c r="S312" s="4"/>
-      <c r="T312" s="4"/>
-      <c r="U312" s="4"/>
-      <c r="V312" s="4"/>
-      <c r="W312" s="4"/>
-      <c r="X312" s="4"/>
-      <c r="Y312" s="4"/>
-      <c r="Z312" s="4"/>
-      <c r="AA312" s="4"/>
-      <c r="AB312" s="4"/>
-      <c r="AC312" s="4"/>
-      <c r="AD312" s="4"/>
-      <c r="AE312" s="4"/>
-      <c r="AF312" s="4"/>
-      <c r="AG312" s="9"/>
-      <c r="AH312" s="10"/>
-    </row>
-    <row r="313" spans="1:34">
-      <c r="A313" s="4"/>
-      <c r="B313" s="4"/>
-      <c r="C313" s="4"/>
-      <c r="D313" s="4"/>
-      <c r="E313" s="4"/>
-      <c r="F313" s="4"/>
-      <c r="G313" s="4"/>
-      <c r="H313" s="4"/>
-      <c r="I313" s="4"/>
-      <c r="J313" s="4"/>
-      <c r="K313" s="4"/>
-      <c r="L313" s="4"/>
-      <c r="M313" s="4"/>
-      <c r="N313" s="4"/>
-      <c r="O313" s="4"/>
-      <c r="P313" s="4"/>
-      <c r="Q313" s="4"/>
-      <c r="R313" s="4"/>
-      <c r="S313" s="4"/>
-      <c r="T313" s="4"/>
-      <c r="U313" s="4"/>
-      <c r="V313" s="4"/>
-      <c r="W313" s="4"/>
-      <c r="X313" s="4"/>
-      <c r="Y313" s="4"/>
-      <c r="Z313" s="4"/>
-      <c r="AA313" s="4"/>
-      <c r="AB313" s="4"/>
-      <c r="AC313" s="4"/>
-      <c r="AD313" s="4"/>
-      <c r="AE313" s="4"/>
-      <c r="AF313" s="4"/>
-      <c r="AG313" s="9"/>
-      <c r="AH313" s="10"/>
-    </row>
-    <row r="314" spans="1:34">
-      <c r="A314" s="4"/>
-      <c r="B314" s="4"/>
-      <c r="C314" s="4"/>
-      <c r="D314" s="4"/>
-      <c r="E314" s="4"/>
-      <c r="F314" s="4"/>
-      <c r="G314" s="4"/>
-      <c r="H314" s="4"/>
-      <c r="I314" s="4"/>
-      <c r="J314" s="4"/>
-      <c r="K314" s="4"/>
-      <c r="L314" s="4"/>
-      <c r="M314" s="4"/>
-      <c r="N314" s="4"/>
-      <c r="O314" s="4"/>
-      <c r="P314" s="4"/>
-      <c r="Q314" s="4"/>
-      <c r="R314" s="4"/>
-      <c r="S314" s="4"/>
-      <c r="T314" s="4"/>
-      <c r="U314" s="4"/>
-      <c r="V314" s="4"/>
-      <c r="W314" s="4"/>
-      <c r="X314" s="4"/>
-      <c r="Y314" s="4"/>
-      <c r="Z314" s="4"/>
-      <c r="AA314" s="4"/>
-      <c r="AB314" s="4"/>
-      <c r="AC314" s="4"/>
-      <c r="AD314" s="4"/>
-      <c r="AE314" s="4"/>
-      <c r="AF314" s="4"/>
-      <c r="AG314" s="9"/>
-      <c r="AH314" s="10"/>
-    </row>
-    <row r="315" spans="1:34">
-      <c r="A315" s="4"/>
-      <c r="B315" s="4"/>
-      <c r="C315" s="4"/>
-      <c r="D315" s="4"/>
-      <c r="E315" s="4"/>
-      <c r="F315" s="4"/>
-      <c r="G315" s="4"/>
-      <c r="H315" s="4"/>
-      <c r="I315" s="4"/>
-      <c r="J315" s="4"/>
-      <c r="K315" s="4"/>
-      <c r="L315" s="4"/>
-      <c r="M315" s="4"/>
-      <c r="N315" s="4"/>
-      <c r="O315" s="4"/>
-      <c r="P315" s="4"/>
-      <c r="Q315" s="4"/>
-      <c r="R315" s="4"/>
-      <c r="S315" s="4"/>
-      <c r="T315" s="4"/>
-      <c r="U315" s="4"/>
-      <c r="V315" s="4"/>
-      <c r="W315" s="4"/>
-      <c r="X315" s="4"/>
-      <c r="Y315" s="4"/>
-      <c r="Z315" s="4"/>
-      <c r="AA315" s="4"/>
-      <c r="AB315" s="4"/>
-      <c r="AC315" s="4"/>
-      <c r="AD315" s="4"/>
-      <c r="AE315" s="4"/>
-      <c r="AF315" s="4"/>
-      <c r="AG315" s="9"/>
-      <c r="AH315" s="10"/>
-    </row>
-    <row r="316" spans="1:34">
-      <c r="A316" s="4"/>
-      <c r="B316" s="4"/>
-      <c r="C316" s="4"/>
-      <c r="D316" s="4"/>
-      <c r="E316" s="4"/>
-      <c r="F316" s="4"/>
-      <c r="G316" s="4"/>
-      <c r="H316" s="4"/>
-      <c r="I316" s="4"/>
-      <c r="J316" s="4"/>
-      <c r="K316" s="4"/>
-      <c r="L316" s="4"/>
-      <c r="M316" s="4"/>
-      <c r="N316" s="4"/>
-      <c r="O316" s="4"/>
-      <c r="P316" s="4"/>
-      <c r="Q316" s="4"/>
-      <c r="R316" s="4"/>
-      <c r="S316" s="4"/>
-      <c r="T316" s="4"/>
-      <c r="U316" s="4"/>
-      <c r="V316" s="4"/>
-      <c r="W316" s="4"/>
-      <c r="X316" s="4"/>
-      <c r="Y316" s="4"/>
-      <c r="Z316" s="4"/>
-      <c r="AA316" s="4"/>
-      <c r="AB316" s="4"/>
-      <c r="AC316" s="4"/>
-      <c r="AD316" s="4"/>
-      <c r="AE316" s="4"/>
-      <c r="AF316" s="4"/>
-      <c r="AG316" s="9"/>
-      <c r="AH316" s="10"/>
-    </row>
-    <row r="317" spans="1:34">
-      <c r="A317" s="4"/>
-      <c r="B317" s="4"/>
-      <c r="C317" s="4"/>
-      <c r="D317" s="4"/>
-      <c r="E317" s="4"/>
-      <c r="F317" s="4"/>
-      <c r="G317" s="4"/>
-      <c r="H317" s="4"/>
-      <c r="I317" s="4"/>
-      <c r="J317" s="4"/>
-      <c r="K317" s="4"/>
-      <c r="L317" s="4"/>
-      <c r="M317" s="4"/>
-      <c r="N317" s="4"/>
-      <c r="O317" s="4"/>
-      <c r="P317" s="4"/>
-      <c r="Q317" s="4"/>
-      <c r="R317" s="4"/>
-      <c r="S317" s="4"/>
-      <c r="T317" s="4"/>
-      <c r="U317" s="4"/>
-      <c r="V317" s="4"/>
-      <c r="W317" s="4"/>
-      <c r="X317" s="4"/>
-      <c r="Y317" s="4"/>
-      <c r="Z317" s="4"/>
-      <c r="AA317" s="4"/>
-      <c r="AB317" s="4"/>
-      <c r="AC317" s="4"/>
-      <c r="AD317" s="4"/>
-      <c r="AE317" s="4"/>
-      <c r="AF317" s="4"/>
-      <c r="AG317" s="9"/>
-      <c r="AH317" s="10"/>
-    </row>
-    <row r="318" spans="1:34">
-      <c r="A318" s="4"/>
-      <c r="B318" s="4"/>
-      <c r="C318" s="4"/>
-      <c r="D318" s="4"/>
-      <c r="E318" s="4"/>
-      <c r="F318" s="4"/>
-      <c r="G318" s="4"/>
-      <c r="H318" s="4"/>
-      <c r="I318" s="4"/>
-      <c r="J318" s="4"/>
-      <c r="K318" s="4"/>
-      <c r="L318" s="4"/>
-      <c r="M318" s="4"/>
-      <c r="N318" s="4"/>
-      <c r="O318" s="4"/>
-      <c r="P318" s="4"/>
-      <c r="Q318" s="4"/>
-      <c r="R318" s="4"/>
-      <c r="S318" s="4"/>
-      <c r="T318" s="4"/>
-      <c r="U318" s="4"/>
-      <c r="V318" s="4"/>
-      <c r="W318" s="4"/>
-      <c r="X318" s="4"/>
-      <c r="Y318" s="4"/>
-      <c r="Z318" s="4"/>
-      <c r="AA318" s="4"/>
-      <c r="AB318" s="4"/>
-      <c r="AC318" s="4"/>
-      <c r="AD318" s="4"/>
-      <c r="AE318" s="4"/>
-      <c r="AF318" s="4"/>
-      <c r="AG318" s="9"/>
-      <c r="AH318" s="10"/>
-    </row>
-    <row r="319" spans="1:34">
-      <c r="A319" s="4"/>
-      <c r="B319" s="4"/>
-      <c r="C319" s="4"/>
-      <c r="D319" s="4"/>
-      <c r="E319" s="4"/>
-      <c r="F319" s="4"/>
-      <c r="G319" s="4"/>
-      <c r="H319" s="4"/>
-      <c r="I319" s="4"/>
-      <c r="J319" s="4"/>
-      <c r="K319" s="4"/>
-      <c r="L319" s="4"/>
-      <c r="M319" s="4"/>
-      <c r="N319" s="4"/>
-      <c r="O319" s="4"/>
-      <c r="P319" s="4"/>
-      <c r="Q319" s="4"/>
-      <c r="R319" s="4"/>
-      <c r="S319" s="4"/>
-      <c r="T319" s="4"/>
-      <c r="U319" s="4"/>
-      <c r="V319" s="4"/>
-      <c r="W319" s="4"/>
-      <c r="X319" s="4"/>
-      <c r="Y319" s="4"/>
-      <c r="Z319" s="4"/>
-      <c r="AA319" s="4"/>
-      <c r="AB319" s="4"/>
-      <c r="AC319" s="4"/>
-      <c r="AD319" s="4"/>
-      <c r="AE319" s="4"/>
-      <c r="AF319" s="4"/>
-      <c r="AG319" s="9"/>
-      <c r="AH319" s="10"/>
-    </row>
-    <row r="320" spans="1:34">
-      <c r="A320" s="4"/>
-      <c r="B320" s="4"/>
-      <c r="C320" s="4"/>
-      <c r="D320" s="4"/>
-      <c r="E320" s="4"/>
-      <c r="F320" s="4"/>
-      <c r="G320" s="4"/>
-      <c r="H320" s="4"/>
-      <c r="I320" s="4"/>
-      <c r="J320" s="4"/>
-      <c r="K320" s="4"/>
-      <c r="L320" s="4"/>
-      <c r="M320" s="4"/>
-      <c r="N320" s="4"/>
-      <c r="O320" s="4"/>
-      <c r="P320" s="4"/>
-      <c r="Q320" s="4"/>
-      <c r="R320" s="4"/>
-      <c r="S320" s="4"/>
-      <c r="T320" s="4"/>
-      <c r="U320" s="4"/>
-      <c r="V320" s="4"/>
-      <c r="W320" s="4"/>
-      <c r="X320" s="4"/>
-      <c r="Y320" s="4"/>
-      <c r="Z320" s="4"/>
-      <c r="AA320" s="4"/>
-      <c r="AB320" s="4"/>
-      <c r="AC320" s="4"/>
-      <c r="AD320" s="4"/>
-      <c r="AE320" s="4"/>
-      <c r="AF320" s="4"/>
-      <c r="AG320" s="9"/>
-      <c r="AH320" s="10"/>
-    </row>
-    <row r="321" spans="1:34">
-      <c r="A321" s="4"/>
-      <c r="B321" s="4"/>
-      <c r="C321" s="4"/>
-      <c r="D321" s="4"/>
-      <c r="E321" s="4"/>
-      <c r="F321" s="4"/>
-      <c r="G321" s="4"/>
-      <c r="H321" s="4"/>
-      <c r="I321" s="4"/>
-      <c r="J321" s="4"/>
-      <c r="K321" s="4"/>
-      <c r="L321" s="4"/>
-      <c r="M321" s="4"/>
-      <c r="N321" s="4"/>
-      <c r="O321" s="4"/>
-      <c r="P321" s="4"/>
-      <c r="Q321" s="4"/>
-      <c r="R321" s="4"/>
-      <c r="S321" s="4"/>
-      <c r="T321" s="4"/>
-      <c r="U321" s="4"/>
-      <c r="V321" s="4"/>
-      <c r="W321" s="4"/>
-      <c r="X321" s="4"/>
-      <c r="Y321" s="4"/>
-      <c r="Z321" s="4"/>
-      <c r="AA321" s="4"/>
-      <c r="AB321" s="4"/>
-      <c r="AC321" s="4"/>
-      <c r="AD321" s="4"/>
-      <c r="AE321" s="4"/>
-      <c r="AF321" s="4"/>
-      <c r="AG321" s="9"/>
-      <c r="AH321" s="10"/>
-    </row>
-    <row r="322" spans="1:34">
-      <c r="A322" s="4"/>
-      <c r="B322" s="4"/>
-      <c r="C322" s="4"/>
-      <c r="D322" s="4"/>
-      <c r="E322" s="4"/>
-      <c r="F322" s="4"/>
-      <c r="G322" s="4"/>
-      <c r="H322" s="4"/>
-      <c r="I322" s="4"/>
-      <c r="J322" s="4"/>
-      <c r="K322" s="4"/>
-      <c r="L322" s="4"/>
-      <c r="M322" s="4"/>
-      <c r="N322" s="4"/>
-      <c r="O322" s="4"/>
-      <c r="P322" s="4"/>
-      <c r="Q322" s="4"/>
-      <c r="R322" s="4"/>
-      <c r="S322" s="4"/>
-      <c r="T322" s="4"/>
-      <c r="U322" s="4"/>
-      <c r="V322" s="4"/>
-      <c r="W322" s="4"/>
-      <c r="X322" s="4"/>
-      <c r="Y322" s="4"/>
-      <c r="Z322" s="4"/>
-      <c r="AA322" s="4"/>
-      <c r="AB322" s="4"/>
-      <c r="AC322" s="4"/>
-      <c r="AD322" s="4"/>
-      <c r="AE322" s="4"/>
-      <c r="AF322" s="4"/>
-      <c r="AG322" s="9"/>
-      <c r="AH322" s="10"/>
-    </row>
-    <row r="323" spans="1:34">
-      <c r="A323" s="4"/>
-      <c r="B323" s="4"/>
-      <c r="C323" s="4"/>
-      <c r="D323" s="4"/>
-      <c r="E323" s="4"/>
-      <c r="F323" s="4"/>
-      <c r="G323" s="4"/>
-      <c r="H323" s="4"/>
-      <c r="I323" s="4"/>
-      <c r="J323" s="4"/>
-      <c r="K323" s="4"/>
-      <c r="L323" s="4"/>
-      <c r="M323" s="4"/>
-      <c r="N323" s="4"/>
-      <c r="O323" s="4"/>
-      <c r="P323" s="4"/>
-      <c r="Q323" s="4"/>
-      <c r="R323" s="4"/>
-      <c r="S323" s="4"/>
-      <c r="T323" s="4"/>
-      <c r="U323" s="4"/>
-      <c r="V323" s="4"/>
-      <c r="W323" s="4"/>
-      <c r="X323" s="4"/>
-      <c r="Y323" s="4"/>
-      <c r="Z323" s="4"/>
-      <c r="AA323" s="4"/>
-      <c r="AB323" s="4"/>
-      <c r="AC323" s="4"/>
-      <c r="AD323" s="4"/>
-      <c r="AE323" s="4"/>
-      <c r="AF323" s="4"/>
-      <c r="AG323" s="9"/>
-      <c r="AH323" s="10"/>
-    </row>
-    <row r="324" spans="1:34">
-      <c r="A324" s="4"/>
-      <c r="B324" s="4"/>
-      <c r="C324" s="4"/>
-      <c r="D324" s="4"/>
-      <c r="E324" s="4"/>
-      <c r="F324" s="4"/>
-      <c r="G324" s="4"/>
-      <c r="H324" s="4"/>
-      <c r="I324" s="4"/>
-      <c r="J324" s="4"/>
-      <c r="K324" s="4"/>
-      <c r="L324" s="4"/>
-      <c r="M324" s="4"/>
-      <c r="N324" s="4"/>
-      <c r="O324" s="4"/>
-      <c r="P324" s="4"/>
-      <c r="Q324" s="4"/>
-      <c r="R324" s="4"/>
-      <c r="S324" s="4"/>
-      <c r="T324" s="4"/>
-      <c r="U324" s="4"/>
-      <c r="V324" s="4"/>
-      <c r="W324" s="4"/>
-      <c r="X324" s="4"/>
-      <c r="Y324" s="4"/>
-      <c r="Z324" s="4"/>
-      <c r="AA324" s="4"/>
-      <c r="AB324" s="4"/>
-      <c r="AC324" s="4"/>
-      <c r="AD324" s="4"/>
-      <c r="AE324" s="4"/>
-      <c r="AF324" s="4"/>
-      <c r="AG324" s="9"/>
-      <c r="AH324" s="10"/>
-    </row>
-    <row r="325" spans="1:34">
-      <c r="A325" s="4"/>
-      <c r="B325" s="4"/>
-      <c r="C325" s="4"/>
-      <c r="D325" s="4"/>
-      <c r="E325" s="4"/>
-      <c r="F325" s="4"/>
-      <c r="G325" s="4"/>
-      <c r="H325" s="4"/>
-      <c r="I325" s="4"/>
-      <c r="J325" s="4"/>
-      <c r="K325" s="4"/>
-      <c r="L325" s="4"/>
-      <c r="M325" s="4"/>
-      <c r="N325" s="4"/>
-      <c r="O325" s="4"/>
-      <c r="P325" s="4"/>
-      <c r="Q325" s="4"/>
-      <c r="R325" s="4"/>
-      <c r="S325" s="4"/>
-      <c r="T325" s="4"/>
-      <c r="U325" s="4"/>
-      <c r="V325" s="4"/>
-      <c r="W325" s="4"/>
-      <c r="X325" s="4"/>
-      <c r="Y325" s="4"/>
-      <c r="Z325" s="4"/>
-      <c r="AA325" s="4"/>
-      <c r="AB325" s="4"/>
-      <c r="AC325" s="4"/>
-      <c r="AD325" s="4"/>
-      <c r="AE325" s="4"/>
-      <c r="AF325" s="4"/>
-      <c r="AG325" s="9"/>
-      <c r="AH325" s="10"/>
-    </row>
-    <row r="326" spans="1:34">
-      <c r="A326" s="4"/>
-      <c r="B326" s="4"/>
-      <c r="C326" s="4"/>
-      <c r="D326" s="4"/>
-      <c r="E326" s="4"/>
-      <c r="F326" s="4"/>
-      <c r="G326" s="4"/>
-      <c r="H326" s="4"/>
-      <c r="I326" s="4"/>
-      <c r="J326" s="4"/>
-      <c r="K326" s="4"/>
-      <c r="L326" s="4"/>
-      <c r="M326" s="4"/>
-      <c r="N326" s="4"/>
-      <c r="O326" s="4"/>
-      <c r="P326" s="4"/>
-      <c r="Q326" s="4"/>
-      <c r="R326" s="4"/>
-      <c r="S326" s="4"/>
-      <c r="T326" s="4"/>
-      <c r="U326" s="4"/>
-      <c r="V326" s="4"/>
-      <c r="W326" s="4"/>
-      <c r="X326" s="4"/>
-      <c r="Y326" s="4"/>
-      <c r="Z326" s="4"/>
-      <c r="AA326" s="4"/>
-      <c r="AB326" s="4"/>
-      <c r="AC326" s="4"/>
-      <c r="AD326" s="4"/>
-      <c r="AE326" s="4"/>
-      <c r="AF326" s="4"/>
-      <c r="AG326" s="9"/>
-      <c r="AH326" s="10"/>
-    </row>
-    <row r="327" spans="1:34">
-      <c r="A327" s="4"/>
-      <c r="B327" s="4"/>
-      <c r="C327" s="4"/>
-      <c r="D327" s="4"/>
-      <c r="E327" s="4"/>
-      <c r="F327" s="4"/>
-      <c r="G327" s="4"/>
-      <c r="H327" s="4"/>
-      <c r="I327" s="4"/>
-      <c r="J327" s="4"/>
-      <c r="K327" s="4"/>
-      <c r="L327" s="4"/>
-      <c r="M327" s="4"/>
-      <c r="N327" s="4"/>
-      <c r="O327" s="4"/>
-      <c r="P327" s="4"/>
-      <c r="Q327" s="4"/>
-      <c r="R327" s="4"/>
-      <c r="S327" s="4"/>
-      <c r="T327" s="4"/>
-      <c r="U327" s="4"/>
-      <c r="V327" s="4"/>
-      <c r="W327" s="4"/>
-      <c r="X327" s="4"/>
-      <c r="Y327" s="4"/>
-      <c r="Z327" s="4"/>
-      <c r="AA327" s="4"/>
-      <c r="AB327" s="4"/>
-      <c r="AC327" s="4"/>
-      <c r="AD327" s="4"/>
-      <c r="AE327" s="4"/>
-      <c r="AF327" s="4"/>
-      <c r="AG327" s="9"/>
-      <c r="AH327" s="10"/>
-    </row>
-    <row r="328" spans="1:34">
-      <c r="A328" s="4"/>
-      <c r="B328" s="4"/>
-      <c r="C328" s="4"/>
-      <c r="D328" s="4"/>
-      <c r="E328" s="4"/>
-      <c r="F328" s="4"/>
-      <c r="G328" s="4"/>
-      <c r="H328" s="4"/>
-      <c r="I328" s="4"/>
-      <c r="J328" s="4"/>
-      <c r="K328" s="4"/>
-      <c r="L328" s="4"/>
-      <c r="M328" s="4"/>
-      <c r="N328" s="4"/>
-      <c r="O328" s="4"/>
-      <c r="P328" s="4"/>
-      <c r="Q328" s="4"/>
-      <c r="R328" s="4"/>
-      <c r="S328" s="4"/>
-      <c r="T328" s="4"/>
-      <c r="U328" s="4"/>
-      <c r="V328" s="4"/>
-      <c r="W328" s="4"/>
-      <c r="X328" s="4"/>
-      <c r="Y328" s="4"/>
-      <c r="Z328" s="4"/>
-      <c r="AA328" s="4"/>
-      <c r="AB328" s="4"/>
-      <c r="AC328" s="4"/>
-      <c r="AD328" s="4"/>
-      <c r="AE328" s="4"/>
-      <c r="AF328" s="4"/>
-      <c r="AG328" s="9"/>
-      <c r="AH328" s="10"/>
-    </row>
-    <row r="329" spans="1:34">
-      <c r="A329" s="4"/>
-      <c r="B329" s="4"/>
-      <c r="C329" s="4"/>
-      <c r="D329" s="4"/>
-      <c r="E329" s="4"/>
-      <c r="F329" s="4"/>
-      <c r="G329" s="4"/>
-      <c r="H329" s="4"/>
-      <c r="I329" s="4"/>
-      <c r="J329" s="4"/>
-      <c r="K329" s="4"/>
-      <c r="L329" s="4"/>
-      <c r="M329" s="4"/>
-      <c r="N329" s="4"/>
-      <c r="O329" s="4"/>
-      <c r="P329" s="4"/>
-      <c r="Q329" s="4"/>
-      <c r="R329" s="4"/>
-      <c r="S329" s="4"/>
-      <c r="T329" s="4"/>
-      <c r="U329" s="4"/>
-      <c r="V329" s="4"/>
-      <c r="W329" s="4"/>
-      <c r="X329" s="4"/>
-      <c r="Y329" s="4"/>
-      <c r="Z329" s="4"/>
-      <c r="AA329" s="4"/>
-      <c r="AB329" s="4"/>
-      <c r="AC329" s="4"/>
-      <c r="AD329" s="4"/>
-      <c r="AE329" s="4"/>
-      <c r="AF329" s="4"/>
-      <c r="AG329" s="9"/>
-      <c r="AH329" s="10"/>
-    </row>
-    <row r="330" spans="1:34">
-      <c r="A330" s="4"/>
-      <c r="B330" s="4"/>
-      <c r="C330" s="4"/>
-      <c r="D330" s="4"/>
-      <c r="E330" s="4"/>
-      <c r="F330" s="4"/>
-      <c r="G330" s="4"/>
-      <c r="H330" s="4"/>
-      <c r="I330" s="4"/>
-      <c r="J330" s="4"/>
-      <c r="K330" s="4"/>
-      <c r="L330" s="4"/>
-      <c r="M330" s="4"/>
-      <c r="N330" s="4"/>
-      <c r="O330" s="4"/>
-      <c r="P330" s="4"/>
-      <c r="Q330" s="4"/>
-      <c r="R330" s="4"/>
-      <c r="S330" s="4"/>
-      <c r="T330" s="4"/>
-      <c r="U330" s="4"/>
-      <c r="V330" s="4"/>
-      <c r="W330" s="4"/>
-      <c r="X330" s="4"/>
-      <c r="Y330" s="4"/>
-      <c r="Z330" s="4"/>
-      <c r="AA330" s="4"/>
-      <c r="AB330" s="4"/>
-      <c r="AC330" s="4"/>
-      <c r="AD330" s="4"/>
-      <c r="AE330" s="4"/>
-      <c r="AF330" s="4"/>
-      <c r="AG330" s="9"/>
-      <c r="AH330" s="10"/>
-    </row>
-    <row r="331" spans="1:34">
-      <c r="A331" s="4"/>
-      <c r="B331" s="4"/>
-      <c r="C331" s="4"/>
-      <c r="D331" s="4"/>
-      <c r="E331" s="4"/>
-      <c r="F331" s="4"/>
-      <c r="G331" s="4"/>
-      <c r="H331" s="4"/>
-      <c r="I331" s="4"/>
-      <c r="J331" s="4"/>
-      <c r="K331" s="4"/>
-      <c r="L331" s="4"/>
-      <c r="M331" s="4"/>
-      <c r="N331" s="4"/>
-      <c r="O331" s="4"/>
-      <c r="P331" s="4"/>
-      <c r="Q331" s="4"/>
-      <c r="R331" s="4"/>
-      <c r="S331" s="4"/>
-      <c r="T331" s="4"/>
-      <c r="U331" s="4"/>
-      <c r="V331" s="4"/>
-      <c r="W331" s="4"/>
-      <c r="X331" s="4"/>
-      <c r="Y331" s="4"/>
-      <c r="Z331" s="4"/>
-      <c r="AA331" s="4"/>
-      <c r="AB331" s="4"/>
-      <c r="AC331" s="4"/>
-      <c r="AD331" s="4"/>
-      <c r="AE331" s="4"/>
-      <c r="AF331" s="4"/>
-      <c r="AG331" s="9"/>
-      <c r="AH331" s="10"/>
-    </row>
-    <row r="332" spans="1:34">
-      <c r="A332" s="4"/>
-      <c r="B332" s="4"/>
-      <c r="C332" s="4"/>
-      <c r="D332" s="4"/>
-      <c r="E332" s="4"/>
-      <c r="F332" s="4"/>
-      <c r="G332" s="4"/>
-      <c r="H332" s="4"/>
-      <c r="I332" s="4"/>
-      <c r="J332" s="4"/>
-      <c r="K332" s="4"/>
-      <c r="L332" s="4"/>
-      <c r="M332" s="4"/>
-      <c r="N332" s="4"/>
-      <c r="O332" s="4"/>
-      <c r="P332" s="4"/>
-      <c r="Q332" s="4"/>
-      <c r="R332" s="4"/>
-      <c r="S332" s="4"/>
-      <c r="T332" s="4"/>
-      <c r="U332" s="4"/>
-      <c r="V332" s="4"/>
-      <c r="W332" s="4"/>
-      <c r="X332" s="4"/>
-      <c r="Y332" s="4"/>
-      <c r="Z332" s="4"/>
-      <c r="AA332" s="4"/>
-      <c r="AB332" s="4"/>
-      <c r="AC332" s="4"/>
-      <c r="AD332" s="4"/>
-      <c r="AE332" s="4"/>
-      <c r="AF332" s="4"/>
-      <c r="AG332" s="9"/>
-      <c r="AH332" s="10"/>
-    </row>
-    <row r="333" spans="1:34">
-      <c r="A333" s="4"/>
-      <c r="B333" s="4"/>
-      <c r="C333" s="4"/>
-      <c r="D333" s="4"/>
-      <c r="E333" s="4"/>
-      <c r="F333" s="4"/>
-      <c r="G333" s="4"/>
-      <c r="H333" s="4"/>
-      <c r="I333" s="4"/>
-      <c r="J333" s="4"/>
-      <c r="K333" s="4"/>
-      <c r="L333" s="4"/>
-      <c r="M333" s="4"/>
-      <c r="N333" s="4"/>
-      <c r="O333" s="4"/>
-      <c r="P333" s="4"/>
-      <c r="Q333" s="4"/>
-      <c r="R333" s="4"/>
-      <c r="S333" s="4"/>
-      <c r="T333" s="4"/>
-      <c r="U333" s="4"/>
-      <c r="V333" s="4"/>
-      <c r="W333" s="4"/>
-      <c r="X333" s="4"/>
-      <c r="Y333" s="4"/>
-      <c r="Z333" s="4"/>
-      <c r="AA333" s="4"/>
-      <c r="AB333" s="4"/>
-      <c r="AC333" s="4"/>
-      <c r="AD333" s="4"/>
-      <c r="AE333" s="4"/>
-      <c r="AF333" s="4"/>
-      <c r="AG333" s="9"/>
-      <c r="AH333" s="10"/>
-    </row>
-    <row r="334" spans="1:34">
-      <c r="A334" s="4"/>
-      <c r="B334" s="4"/>
-      <c r="C334" s="4"/>
-      <c r="D334" s="4"/>
-      <c r="E334" s="4"/>
-      <c r="F334" s="4"/>
-      <c r="G334" s="4"/>
-      <c r="H334" s="4"/>
-      <c r="I334" s="4"/>
-      <c r="J334" s="4"/>
-      <c r="K334" s="4"/>
-      <c r="L334" s="4"/>
-      <c r="M334" s="4"/>
-      <c r="N334" s="4"/>
-      <c r="O334" s="4"/>
-      <c r="P334" s="4"/>
-      <c r="Q334" s="4"/>
-      <c r="R334" s="4"/>
-      <c r="S334" s="4"/>
-      <c r="T334" s="4"/>
-      <c r="U334" s="4"/>
-      <c r="V334" s="4"/>
-      <c r="W334" s="4"/>
-      <c r="X334" s="4"/>
-      <c r="Y334" s="4"/>
-      <c r="Z334" s="4"/>
-      <c r="AA334" s="4"/>
-      <c r="AB334" s="4"/>
-      <c r="AC334" s="4"/>
-      <c r="AD334" s="4"/>
-      <c r="AE334" s="4"/>
-      <c r="AF334" s="4"/>
-      <c r="AG334" s="9"/>
-      <c r="AH334" s="10"/>
-    </row>
-    <row r="335" spans="1:34">
-      <c r="A335" s="4"/>
-      <c r="B335" s="4"/>
-      <c r="C335" s="4"/>
-      <c r="D335" s="4"/>
-      <c r="E335" s="4"/>
-      <c r="F335" s="4"/>
-      <c r="G335" s="4"/>
-      <c r="H335" s="4"/>
-      <c r="I335" s="4"/>
-      <c r="J335" s="4"/>
-      <c r="K335" s="4"/>
-      <c r="L335" s="4"/>
-      <c r="M335" s="4"/>
-      <c r="N335" s="4"/>
-      <c r="O335" s="4"/>
-      <c r="P335" s="4"/>
-      <c r="Q335" s="4"/>
-      <c r="R335" s="4"/>
-      <c r="S335" s="4"/>
-      <c r="T335" s="4"/>
-      <c r="U335" s="4"/>
-      <c r="V335" s="4"/>
-      <c r="W335" s="4"/>
-      <c r="X335" s="4"/>
-      <c r="Y335" s="4"/>
-      <c r="Z335" s="4"/>
-      <c r="AA335" s="4"/>
-      <c r="AB335" s="4"/>
-      <c r="AC335" s="4"/>
-      <c r="AD335" s="4"/>
-      <c r="AE335" s="4"/>
-      <c r="AF335" s="4"/>
-      <c r="AG335" s="9"/>
-      <c r="AH335" s="10"/>
-    </row>
-    <row r="336" spans="1:34">
-      <c r="A336" s="4"/>
-      <c r="B336" s="4"/>
-      <c r="C336" s="4"/>
-      <c r="D336" s="4"/>
-      <c r="E336" s="4"/>
-      <c r="F336" s="4"/>
-      <c r="G336" s="4"/>
-      <c r="H336" s="4"/>
-      <c r="I336" s="4"/>
-      <c r="J336" s="4"/>
-      <c r="K336" s="4"/>
-      <c r="L336" s="4"/>
-      <c r="M336" s="4"/>
-      <c r="N336" s="4"/>
-      <c r="O336" s="4"/>
-      <c r="P336" s="4"/>
-      <c r="Q336" s="4"/>
-      <c r="R336" s="4"/>
-      <c r="S336" s="4"/>
-      <c r="T336" s="4"/>
-      <c r="U336" s="4"/>
-      <c r="V336" s="4"/>
-      <c r="W336" s="4"/>
-      <c r="X336" s="4"/>
-      <c r="Y336" s="4"/>
-      <c r="Z336" s="4"/>
-      <c r="AA336" s="4"/>
-      <c r="AB336" s="4"/>
-      <c r="AC336" s="4"/>
-      <c r="AD336" s="4"/>
-      <c r="AE336" s="4"/>
-      <c r="AF336" s="4"/>
-      <c r="AG336" s="9"/>
-      <c r="AH336" s="10"/>
-    </row>
-    <row r="337" spans="1:34">
-      <c r="A337" s="4"/>
-      <c r="B337" s="4"/>
-      <c r="C337" s="4"/>
-      <c r="D337" s="4"/>
-      <c r="E337" s="4"/>
-      <c r="F337" s="4"/>
-      <c r="G337" s="4"/>
-      <c r="H337" s="4"/>
-      <c r="I337" s="4"/>
-      <c r="J337" s="4"/>
-      <c r="K337" s="4"/>
-      <c r="L337" s="4"/>
-      <c r="M337" s="4"/>
-      <c r="N337" s="4"/>
-      <c r="O337" s="4"/>
-      <c r="P337" s="4"/>
-      <c r="Q337" s="4"/>
-      <c r="R337" s="4"/>
-      <c r="S337" s="4"/>
-      <c r="T337" s="4"/>
-      <c r="U337" s="4"/>
-      <c r="V337" s="4"/>
-      <c r="W337" s="4"/>
-      <c r="X337" s="4"/>
-      <c r="Y337" s="4"/>
-      <c r="Z337" s="4"/>
-      <c r="AA337" s="4"/>
-      <c r="AB337" s="4"/>
-      <c r="AC337" s="4"/>
-      <c r="AD337" s="4"/>
-      <c r="AE337" s="4"/>
-      <c r="AF337" s="4"/>
-      <c r="AG337" s="9"/>
-      <c r="AH337" s="10"/>
-    </row>
-    <row r="338" spans="1:34">
-      <c r="A338" s="4"/>
-      <c r="B338" s="4"/>
-      <c r="C338" s="4"/>
-      <c r="D338" s="4"/>
-      <c r="E338" s="4"/>
-      <c r="F338" s="4"/>
-      <c r="G338" s="4"/>
-      <c r="H338" s="4"/>
-      <c r="I338" s="4"/>
-      <c r="J338" s="4"/>
-      <c r="K338" s="4"/>
-      <c r="L338" s="4"/>
-      <c r="M338" s="4"/>
-      <c r="N338" s="4"/>
-      <c r="O338" s="4"/>
-      <c r="P338" s="4"/>
-      <c r="Q338" s="4"/>
-      <c r="R338" s="4"/>
-      <c r="S338" s="4"/>
-      <c r="T338" s="4"/>
-      <c r="U338" s="4"/>
-      <c r="V338" s="4"/>
-      <c r="W338" s="4"/>
-      <c r="X338" s="4"/>
-      <c r="Y338" s="4"/>
-      <c r="Z338" s="4"/>
-      <c r="AA338" s="4"/>
-      <c r="AB338" s="4"/>
-      <c r="AC338" s="4"/>
-      <c r="AD338" s="4"/>
-      <c r="AE338" s="4"/>
-      <c r="AF338" s="4"/>
-      <c r="AG338" s="9"/>
-      <c r="AH338" s="10"/>
-    </row>
-    <row r="339" spans="1:34">
-      <c r="A339" s="4"/>
-      <c r="B339" s="4"/>
-      <c r="C339" s="4"/>
-      <c r="D339" s="4"/>
-      <c r="E339" s="4"/>
-      <c r="F339" s="4"/>
-      <c r="G339" s="4"/>
-      <c r="H339" s="4"/>
-      <c r="I339" s="4"/>
-      <c r="J339" s="4"/>
-      <c r="K339" s="4"/>
-      <c r="L339" s="4"/>
-      <c r="M339" s="4"/>
-      <c r="N339" s="4"/>
-      <c r="O339" s="4"/>
-      <c r="P339" s="4"/>
-      <c r="Q339" s="4"/>
-      <c r="R339" s="4"/>
-      <c r="S339" s="4"/>
-      <c r="T339" s="4"/>
-      <c r="U339" s="4"/>
-      <c r="V339" s="4"/>
-      <c r="W339" s="4"/>
-      <c r="X339" s="4"/>
-      <c r="Y339" s="4"/>
-      <c r="Z339" s="4"/>
-      <c r="AA339" s="4"/>
-      <c r="AB339" s="4"/>
-      <c r="AC339" s="4"/>
-      <c r="AD339" s="4"/>
-      <c r="AE339" s="4"/>
-      <c r="AF339" s="4"/>
-      <c r="AG339" s="9"/>
-      <c r="AH339" s="10"/>
-    </row>
-    <row r="340" spans="1:34">
-      <c r="A340" s="4"/>
-      <c r="B340" s="4"/>
-      <c r="C340" s="4"/>
-      <c r="D340" s="4"/>
-      <c r="E340" s="4"/>
-      <c r="F340" s="4"/>
-      <c r="G340" s="4"/>
-      <c r="H340" s="4"/>
-      <c r="I340" s="4"/>
-      <c r="J340" s="4"/>
-      <c r="K340" s="4"/>
-      <c r="L340" s="4"/>
-      <c r="M340" s="4"/>
-      <c r="N340" s="4"/>
-      <c r="O340" s="4"/>
-      <c r="P340" s="4"/>
-      <c r="Q340" s="4"/>
-      <c r="R340" s="4"/>
-      <c r="S340" s="4"/>
-      <c r="T340" s="4"/>
-      <c r="U340" s="4"/>
-      <c r="V340" s="4"/>
-      <c r="W340" s="4"/>
-      <c r="X340" s="4"/>
-      <c r="Y340" s="4"/>
-      <c r="Z340" s="4"/>
-      <c r="AA340" s="4"/>
-      <c r="AB340" s="4"/>
-      <c r="AC340" s="4"/>
-      <c r="AD340" s="4"/>
-      <c r="AE340" s="4"/>
-      <c r="AF340" s="4"/>
-      <c r="AG340" s="9"/>
-      <c r="AH340" s="10"/>
-    </row>
-    <row r="341" spans="1:34">
-      <c r="A341" s="4"/>
-      <c r="B341" s="4"/>
-      <c r="C341" s="4"/>
-      <c r="D341" s="4"/>
-      <c r="E341" s="4"/>
-      <c r="F341" s="4"/>
-      <c r="G341" s="4"/>
-      <c r="H341" s="4"/>
-      <c r="I341" s="4"/>
-      <c r="J341" s="4"/>
-      <c r="K341" s="4"/>
-      <c r="L341" s="4"/>
-      <c r="M341" s="4"/>
-      <c r="N341" s="4"/>
-      <c r="O341" s="4"/>
-      <c r="P341" s="4"/>
-      <c r="Q341" s="4"/>
-      <c r="R341" s="4"/>
-      <c r="S341" s="4"/>
-      <c r="T341" s="4"/>
-      <c r="U341" s="4"/>
-      <c r="V341" s="4"/>
-      <c r="W341" s="4"/>
-      <c r="X341" s="4"/>
-      <c r="Y341" s="4"/>
-      <c r="Z341" s="4"/>
-      <c r="AA341" s="4"/>
-      <c r="AB341" s="4"/>
-      <c r="AC341" s="4"/>
-      <c r="AD341" s="4"/>
-      <c r="AE341" s="4"/>
-      <c r="AF341" s="4"/>
-      <c r="AG341" s="9"/>
-      <c r="AH341" s="10"/>
-    </row>
-    <row r="342" spans="1:34">
-      <c r="A342" s="4"/>
-      <c r="B342" s="4"/>
-      <c r="C342" s="4"/>
-      <c r="D342" s="4"/>
-      <c r="E342" s="4"/>
-      <c r="F342" s="4"/>
-      <c r="G342" s="4"/>
-      <c r="H342" s="4"/>
-      <c r="I342" s="4"/>
-      <c r="J342" s="4"/>
-      <c r="K342" s="4"/>
-      <c r="L342" s="4"/>
-      <c r="M342" s="4"/>
-      <c r="N342" s="4"/>
-      <c r="O342" s="4"/>
-      <c r="P342" s="4"/>
-      <c r="Q342" s="4"/>
-      <c r="R342" s="4"/>
-      <c r="S342" s="4"/>
-      <c r="T342" s="4"/>
-      <c r="U342" s="4"/>
-      <c r="V342" s="4"/>
-      <c r="W342" s="4"/>
-      <c r="X342" s="4"/>
-      <c r="Y342" s="4"/>
-      <c r="Z342" s="4"/>
-      <c r="AA342" s="4"/>
-      <c r="AB342" s="4"/>
-      <c r="AC342" s="4"/>
-      <c r="AD342" s="4"/>
-      <c r="AE342" s="4"/>
-      <c r="AF342" s="4"/>
-      <c r="AG342" s="9"/>
-      <c r="AH342" s="10"/>
-    </row>
-    <row r="343" spans="1:34">
-      <c r="A343" s="4"/>
-      <c r="B343" s="4"/>
-      <c r="C343" s="4"/>
-      <c r="D343" s="4"/>
-      <c r="E343" s="4"/>
-      <c r="F343" s="4"/>
-      <c r="G343" s="4"/>
-      <c r="H343" s="4"/>
-      <c r="I343" s="4"/>
-      <c r="J343" s="4"/>
-      <c r="K343" s="4"/>
-      <c r="L343" s="4"/>
-      <c r="M343" s="4"/>
-      <c r="N343" s="4"/>
-      <c r="O343" s="4"/>
-      <c r="P343" s="4"/>
-      <c r="Q343" s="4"/>
-      <c r="R343" s="4"/>
-      <c r="S343" s="4"/>
-      <c r="T343" s="4"/>
-      <c r="U343" s="4"/>
-      <c r="V343" s="4"/>
-      <c r="W343" s="4"/>
-      <c r="X343" s="4"/>
-      <c r="Y343" s="4"/>
-      <c r="Z343" s="4"/>
-      <c r="AA343" s="4"/>
-      <c r="AB343" s="4"/>
-      <c r="AC343" s="4"/>
-      <c r="AD343" s="4"/>
-      <c r="AE343" s="4"/>
-      <c r="AF343" s="4"/>
-      <c r="AG343" s="9"/>
-      <c r="AH343" s="10"/>
-    </row>
-    <row r="344" spans="1:34">
-      <c r="A344" s="4"/>
-      <c r="B344" s="4"/>
-      <c r="C344" s="4"/>
-      <c r="D344" s="4"/>
-      <c r="E344" s="4"/>
-      <c r="F344" s="4"/>
-      <c r="G344" s="4"/>
-      <c r="H344" s="4"/>
-      <c r="I344" s="4"/>
-      <c r="J344" s="4"/>
-      <c r="K344" s="4"/>
-      <c r="L344" s="4"/>
-      <c r="M344" s="4"/>
-      <c r="N344" s="4"/>
-      <c r="O344" s="4"/>
-      <c r="P344" s="4"/>
-      <c r="Q344" s="4"/>
-      <c r="R344" s="4"/>
-      <c r="S344" s="4"/>
-      <c r="T344" s="4"/>
-      <c r="U344" s="4"/>
-      <c r="V344" s="4"/>
-      <c r="W344" s="4"/>
-      <c r="X344" s="4"/>
-      <c r="Y344" s="4"/>
-      <c r="Z344" s="4"/>
-      <c r="AA344" s="4"/>
-      <c r="AB344" s="4"/>
-      <c r="AC344" s="4"/>
-      <c r="AD344" s="4"/>
-      <c r="AE344" s="4"/>
-      <c r="AF344" s="4"/>
-      <c r="AG344" s="9"/>
-      <c r="AH344" s="10"/>
-    </row>
-    <row r="345" spans="1:34">
-      <c r="A345" s="4"/>
-      <c r="B345" s="4"/>
-      <c r="C345" s="4"/>
-      <c r="D345" s="4"/>
-      <c r="E345" s="4"/>
-      <c r="F345" s="4"/>
-      <c r="G345" s="4"/>
-      <c r="H345" s="4"/>
-      <c r="I345" s="4"/>
-      <c r="J345" s="4"/>
-      <c r="K345" s="4"/>
-      <c r="L345" s="4"/>
-      <c r="M345" s="4"/>
-      <c r="N345" s="4"/>
-      <c r="O345" s="4"/>
-      <c r="P345" s="4"/>
-      <c r="Q345" s="4"/>
-      <c r="R345" s="4"/>
-      <c r="S345" s="4"/>
-      <c r="T345" s="4"/>
-      <c r="U345" s="4"/>
-      <c r="V345" s="4"/>
-      <c r="W345" s="4"/>
-      <c r="X345" s="4"/>
-      <c r="Y345" s="4"/>
-      <c r="Z345" s="4"/>
-      <c r="AA345" s="4"/>
-      <c r="AB345" s="4"/>
-      <c r="AC345" s="4"/>
-      <c r="AD345" s="4"/>
-      <c r="AE345" s="4"/>
-      <c r="AF345" s="4"/>
-      <c r="AG345" s="9"/>
-      <c r="AH345" s="10"/>
-    </row>
-    <row r="346" spans="1:34">
-      <c r="A346" s="4"/>
-      <c r="B346" s="4"/>
-      <c r="C346" s="4"/>
-      <c r="D346" s="4"/>
-      <c r="E346" s="4"/>
-      <c r="F346" s="4"/>
-      <c r="G346" s="4"/>
-      <c r="H346" s="4"/>
-      <c r="I346" s="4"/>
-      <c r="J346" s="4"/>
-      <c r="K346" s="4"/>
-      <c r="L346" s="4"/>
-      <c r="M346" s="4"/>
-      <c r="N346" s="4"/>
-      <c r="O346" s="4"/>
-      <c r="P346" s="4"/>
-      <c r="Q346" s="4"/>
-      <c r="R346" s="4"/>
-      <c r="S346" s="4"/>
-      <c r="T346" s="4"/>
-      <c r="U346" s="4"/>
-      <c r="V346" s="4"/>
-      <c r="W346" s="4"/>
-      <c r="X346" s="4"/>
-      <c r="Y346" s="4"/>
-      <c r="Z346" s="4"/>
-      <c r="AA346" s="4"/>
-      <c r="AB346" s="4"/>
-      <c r="AC346" s="4"/>
-      <c r="AD346" s="4"/>
-      <c r="AE346" s="4"/>
-      <c r="AF346" s="4"/>
-      <c r="AG346" s="9"/>
-      <c r="AH346" s="10"/>
-    </row>
-    <row r="347" spans="1:34">
-      <c r="A347" s="4"/>
-      <c r="B347" s="4"/>
-      <c r="C347" s="4"/>
-      <c r="D347" s="4"/>
-      <c r="E347" s="4"/>
-      <c r="F347" s="4"/>
-      <c r="G347" s="4"/>
-      <c r="H347" s="4"/>
-      <c r="I347" s="4"/>
-      <c r="J347" s="4"/>
-      <c r="K347" s="4"/>
-      <c r="L347" s="4"/>
-      <c r="M347" s="4"/>
-      <c r="N347" s="4"/>
-      <c r="O347" s="4"/>
-      <c r="P347" s="4"/>
-      <c r="Q347" s="4"/>
-      <c r="R347" s="4"/>
-      <c r="S347" s="4"/>
-      <c r="T347" s="4"/>
-      <c r="U347" s="4"/>
-      <c r="V347" s="4"/>
-      <c r="W347" s="4"/>
-      <c r="X347" s="4"/>
-      <c r="Y347" s="4"/>
-      <c r="Z347" s="4"/>
-      <c r="AA347" s="4"/>
-      <c r="AB347" s="4"/>
-      <c r="AC347" s="4"/>
-      <c r="AD347" s="4"/>
-      <c r="AE347" s="4"/>
-      <c r="AF347" s="4"/>
-      <c r="AG347" s="9"/>
-      <c r="AH347" s="10"/>
-    </row>
-    <row r="348" spans="1:34">
-      <c r="A348" s="4"/>
-      <c r="B348" s="4"/>
-      <c r="C348" s="4"/>
-      <c r="D348" s="4"/>
-      <c r="E348" s="4"/>
-      <c r="F348" s="4"/>
-      <c r="G348" s="4"/>
-      <c r="H348" s="4"/>
-      <c r="I348" s="4"/>
-      <c r="J348" s="4"/>
-      <c r="K348" s="4"/>
-      <c r="L348" s="4"/>
-      <c r="M348" s="4"/>
-      <c r="N348" s="4"/>
-      <c r="O348" s="4"/>
-      <c r="P348" s="4"/>
-      <c r="Q348" s="4"/>
-      <c r="R348" s="4"/>
-      <c r="S348" s="4"/>
-      <c r="T348" s="4"/>
-      <c r="U348" s="4"/>
-      <c r="V348" s="4"/>
-      <c r="W348" s="4"/>
-      <c r="X348" s="4"/>
-      <c r="Y348" s="4"/>
-      <c r="Z348" s="4"/>
-      <c r="AA348" s="4"/>
-      <c r="AB348" s="4"/>
-      <c r="AC348" s="4"/>
-      <c r="AD348" s="4"/>
-      <c r="AE348" s="4"/>
-      <c r="AF348" s="4"/>
-      <c r="AG348" s="9"/>
-      <c r="AH348" s="10"/>
-    </row>
-    <row r="349" spans="1:34">
-      <c r="A349" s="4"/>
-      <c r="B349" s="4"/>
-      <c r="C349" s="4"/>
-      <c r="D349" s="4"/>
-      <c r="E349" s="4"/>
-      <c r="F349" s="4"/>
-      <c r="G349" s="4"/>
-      <c r="H349" s="4"/>
-      <c r="I349" s="4"/>
-      <c r="J349" s="4"/>
-      <c r="K349" s="4"/>
-      <c r="L349" s="4"/>
-      <c r="M349" s="4"/>
-      <c r="N349" s="4"/>
-      <c r="O349" s="4"/>
-      <c r="P349" s="4"/>
-      <c r="Q349" s="4"/>
-      <c r="R349" s="4"/>
-      <c r="S349" s="4"/>
-      <c r="T349" s="4"/>
-      <c r="U349" s="4"/>
-      <c r="V349" s="4"/>
-      <c r="W349" s="4"/>
-      <c r="X349" s="4"/>
-      <c r="Y349" s="4"/>
-      <c r="Z349" s="4"/>
-      <c r="AA349" s="4"/>
-      <c r="AB349" s="4"/>
-      <c r="AC349" s="4"/>
-      <c r="AD349" s="4"/>
-      <c r="AE349" s="4"/>
-      <c r="AF349" s="4"/>
-      <c r="AG349" s="9"/>
-      <c r="AH349" s="10"/>
-    </row>
-    <row r="350" spans="1:34">
-      <c r="A350" s="8"/>
-      <c r="B350" s="8"/>
-      <c r="C350" s="8"/>
-      <c r="D350" s="8"/>
-      <c r="E350" s="8"/>
-      <c r="F350" s="8"/>
-      <c r="G350" s="8"/>
-      <c r="H350" s="8"/>
-      <c r="I350" s="8"/>
-      <c r="J350" s="8"/>
-      <c r="K350" s="8"/>
-      <c r="L350" s="8"/>
-      <c r="M350" s="8"/>
-      <c r="N350" s="8"/>
-      <c r="O350" s="8"/>
-      <c r="P350" s="8"/>
-      <c r="Q350" s="8"/>
-      <c r="R350" s="8"/>
-      <c r="S350" s="8"/>
-      <c r="T350" s="8"/>
-      <c r="U350" s="8"/>
-      <c r="V350" s="8"/>
-      <c r="W350" s="8"/>
-      <c r="X350" s="8"/>
-      <c r="Y350" s="8"/>
-      <c r="Z350" s="8"/>
-      <c r="AA350" s="8"/>
-      <c r="AB350" s="8"/>
-      <c r="AC350" s="8"/>
-      <c r="AD350" s="8"/>
-      <c r="AE350" s="8"/>
-      <c r="AF350" s="8"/>
-      <c r="AG350" s="9"/>
-      <c r="AH350" s="10"/>
-    </row>
-    <row r="351" spans="1:34">
-      <c r="A351" s="8"/>
-      <c r="B351" s="8"/>
-      <c r="C351" s="8"/>
-      <c r="D351" s="8"/>
-      <c r="E351" s="8"/>
-      <c r="F351" s="8"/>
-      <c r="G351" s="8"/>
-      <c r="H351" s="8"/>
-      <c r="I351" s="8"/>
-      <c r="J351" s="8"/>
-      <c r="K351" s="8"/>
-      <c r="L351" s="8"/>
-      <c r="M351" s="8"/>
-      <c r="N351" s="8"/>
-      <c r="O351" s="8"/>
-      <c r="P351" s="8"/>
-      <c r="Q351" s="8"/>
-      <c r="R351" s="8"/>
-      <c r="S351" s="8"/>
-      <c r="T351" s="8"/>
-      <c r="U351" s="8"/>
-      <c r="V351" s="8"/>
-      <c r="W351" s="8"/>
-      <c r="X351" s="8"/>
-      <c r="Y351" s="8"/>
-      <c r="Z351" s="8"/>
-      <c r="AA351" s="8"/>
-      <c r="AB351" s="8"/>
-      <c r="AC351" s="8"/>
-      <c r="AD351" s="8"/>
-      <c r="AE351" s="8"/>
-      <c r="AF351" s="8"/>
-      <c r="AG351" s="9"/>
-      <c r="AH351" s="10"/>
-    </row>
-    <row r="352" spans="1:34">
-      <c r="A352" s="8"/>
-      <c r="B352" s="8"/>
-      <c r="C352" s="8"/>
-      <c r="D352" s="8"/>
-      <c r="E352" s="8"/>
-      <c r="F352" s="8"/>
-      <c r="G352" s="8"/>
-      <c r="H352" s="8"/>
-      <c r="I352" s="8"/>
-      <c r="J352" s="8"/>
-      <c r="K352" s="8"/>
-      <c r="L352" s="8"/>
-      <c r="M352" s="8"/>
-      <c r="N352" s="8"/>
-      <c r="O352" s="8"/>
-      <c r="P352" s="8"/>
-      <c r="Q352" s="8"/>
-      <c r="R352" s="8"/>
-      <c r="S352" s="8"/>
-      <c r="T352" s="8"/>
-      <c r="U352" s="8"/>
-      <c r="V352" s="8"/>
-      <c r="W352" s="8"/>
-      <c r="X352" s="8"/>
-      <c r="Y352" s="8"/>
-      <c r="Z352" s="8"/>
-      <c r="AA352" s="8"/>
-      <c r="AB352" s="8"/>
-      <c r="AC352" s="8"/>
-      <c r="AD352" s="8"/>
-      <c r="AE352" s="8"/>
-      <c r="AF352" s="8"/>
-      <c r="AG352" s="9"/>
-      <c r="AH352" s="10"/>
-    </row>
-    <row r="353" spans="1:34">
-      <c r="A353" s="8"/>
-      <c r="B353" s="8"/>
-      <c r="C353" s="8"/>
-      <c r="D353" s="8"/>
-      <c r="E353" s="8"/>
-      <c r="F353" s="8"/>
-      <c r="G353" s="8"/>
-      <c r="H353" s="8"/>
-      <c r="I353" s="8"/>
-      <c r="J353" s="8"/>
-      <c r="K353" s="8"/>
-      <c r="L353" s="8"/>
-      <c r="M353" s="8"/>
-      <c r="N353" s="8"/>
-      <c r="O353" s="8"/>
-      <c r="P353" s="8"/>
-      <c r="Q353" s="8"/>
-      <c r="R353" s="8"/>
-      <c r="S353" s="8"/>
-      <c r="T353" s="8"/>
-      <c r="U353" s="8"/>
-      <c r="V353" s="8"/>
-      <c r="W353" s="8"/>
-      <c r="X353" s="8"/>
-      <c r="Y353" s="8"/>
-      <c r="Z353" s="8"/>
-      <c r="AA353" s="8"/>
-      <c r="AB353" s="8"/>
-      <c r="AC353" s="8"/>
-      <c r="AD353" s="8"/>
-      <c r="AE353" s="8"/>
-      <c r="AF353" s="8"/>
-      <c r="AG353" s="9"/>
-      <c r="AH353" s="10"/>
-    </row>
-    <row r="354" spans="1:34">
-      <c r="A354" s="8"/>
-      <c r="B354" s="8"/>
-      <c r="C354" s="8"/>
-      <c r="D354" s="8"/>
-      <c r="E354" s="8"/>
-      <c r="F354" s="8"/>
-      <c r="G354" s="8"/>
-      <c r="H354" s="8"/>
-      <c r="I354" s="8"/>
-      <c r="J354" s="8"/>
-      <c r="K354" s="8"/>
-      <c r="L354" s="8"/>
-      <c r="M354" s="8"/>
-      <c r="N354" s="8"/>
-      <c r="O354" s="8"/>
-      <c r="P354" s="8"/>
-      <c r="Q354" s="8"/>
-      <c r="R354" s="8"/>
-      <c r="S354" s="8"/>
-      <c r="T354" s="8"/>
-      <c r="U354" s="8"/>
-      <c r="V354" s="8"/>
-      <c r="W354" s="8"/>
-      <c r="X354" s="8"/>
-      <c r="Y354" s="8"/>
-      <c r="Z354" s="8"/>
-      <c r="AA354" s="8"/>
-      <c r="AB354" s="8"/>
-      <c r="AC354" s="8"/>
-      <c r="AD354" s="8"/>
-      <c r="AE354" s="8"/>
-      <c r="AF354" s="8"/>
-      <c r="AG354" s="9"/>
-      <c r="AH354" s="10"/>
-    </row>
-    <row r="355" spans="1:34">
-      <c r="A355" s="8"/>
-      <c r="B355" s="8"/>
-      <c r="C355" s="8"/>
-      <c r="D355" s="8"/>
-      <c r="E355" s="8"/>
-      <c r="F355" s="8"/>
-      <c r="G355" s="8"/>
-      <c r="H355" s="8"/>
-      <c r="I355" s="8"/>
-      <c r="J355" s="8"/>
-      <c r="K355" s="8"/>
-      <c r="L355" s="8"/>
-      <c r="M355" s="8"/>
-      <c r="N355" s="8"/>
-      <c r="O355" s="8"/>
-      <c r="P355" s="8"/>
-      <c r="Q355" s="8"/>
-      <c r="R355" s="8"/>
-      <c r="S355" s="8"/>
-      <c r="T355" s="8"/>
-      <c r="U355" s="8"/>
-      <c r="V355" s="8"/>
-      <c r="W355" s="8"/>
-      <c r="X355" s="8"/>
-      <c r="Y355" s="8"/>
-      <c r="Z355" s="8"/>
-      <c r="AA355" s="8"/>
-      <c r="AB355" s="8"/>
-      <c r="AC355" s="8"/>
-      <c r="AD355" s="8"/>
-      <c r="AE355" s="8"/>
-      <c r="AF355" s="8"/>
-      <c r="AG355" s="9"/>
-      <c r="AH355" s="10"/>
-    </row>
-    <row r="356" spans="1:34">
-      <c r="A356" s="8"/>
-      <c r="B356" s="8"/>
-      <c r="C356" s="8"/>
-      <c r="D356" s="8"/>
-      <c r="E356" s="8"/>
-      <c r="F356" s="8"/>
-      <c r="G356" s="8"/>
-      <c r="H356" s="8"/>
-      <c r="I356" s="8"/>
-      <c r="J356" s="8"/>
-      <c r="K356" s="8"/>
-      <c r="L356" s="8"/>
-      <c r="M356" s="8"/>
-      <c r="N356" s="8"/>
-      <c r="O356" s="8"/>
-      <c r="P356" s="8"/>
-      <c r="Q356" s="8"/>
-      <c r="R356" s="8"/>
-      <c r="S356" s="8"/>
-      <c r="T356" s="8"/>
-      <c r="U356" s="8"/>
-      <c r="V356" s="8"/>
-      <c r="W356" s="8"/>
-      <c r="X356" s="8"/>
-      <c r="Y356" s="8"/>
-      <c r="Z356" s="8"/>
-      <c r="AA356" s="8"/>
-      <c r="AB356" s="8"/>
-      <c r="AC356" s="8"/>
-      <c r="AD356" s="8"/>
-      <c r="AE356" s="8"/>
-      <c r="AF356" s="8"/>
-      <c r="AG356" s="9"/>
-      <c r="AH356" s="10"/>
-    </row>
-    <row r="357" spans="1:34">
-      <c r="A357" s="8"/>
-      <c r="B357" s="8"/>
-      <c r="C357" s="8"/>
-      <c r="D357" s="8"/>
-      <c r="E357" s="8"/>
-      <c r="F357" s="8"/>
-      <c r="G357" s="8"/>
-      <c r="H357" s="8"/>
-      <c r="I357" s="8"/>
-      <c r="J357" s="8"/>
-      <c r="K357" s="8"/>
-      <c r="L357" s="8"/>
-      <c r="M357" s="8"/>
-      <c r="N357" s="8"/>
-      <c r="O357" s="8"/>
-      <c r="P357" s="8"/>
-      <c r="Q357" s="8"/>
-      <c r="R357" s="8"/>
-      <c r="S357" s="8"/>
-      <c r="T357" s="8"/>
-      <c r="U357" s="8"/>
-      <c r="V357" s="8"/>
-      <c r="W357" s="8"/>
-      <c r="X357" s="8"/>
-      <c r="Y357" s="8"/>
-      <c r="Z357" s="8"/>
-      <c r="AA357" s="8"/>
-      <c r="AB357" s="8"/>
-      <c r="AC357" s="8"/>
-      <c r="AD357" s="8"/>
-      <c r="AE357" s="8"/>
-      <c r="AF357" s="8"/>
-      <c r="AG357" s="9"/>
-      <c r="AH357" s="10"/>
-    </row>
-    <row r="358" spans="1:34">
-      <c r="A358" s="8"/>
-      <c r="B358" s="8"/>
-      <c r="C358" s="8"/>
-      <c r="D358" s="8"/>
-      <c r="E358" s="8"/>
-      <c r="F358" s="8"/>
-      <c r="G358" s="8"/>
-      <c r="H358" s="8"/>
-      <c r="I358" s="8"/>
-      <c r="J358" s="8"/>
-      <c r="K358" s="8"/>
-      <c r="L358" s="8"/>
-      <c r="M358" s="8"/>
-      <c r="N358" s="8"/>
-      <c r="O358" s="8"/>
-      <c r="P358" s="8"/>
-      <c r="Q358" s="8"/>
-      <c r="R358" s="8"/>
-      <c r="S358" s="8"/>
-      <c r="T358" s="8"/>
-      <c r="U358" s="8"/>
-      <c r="V358" s="8"/>
-      <c r="W358" s="8"/>
-      <c r="X358" s="8"/>
-      <c r="Y358" s="8"/>
-      <c r="Z358" s="8"/>
-      <c r="AA358" s="8"/>
-      <c r="AB358" s="8"/>
-      <c r="AC358" s="8"/>
-      <c r="AD358" s="8"/>
-      <c r="AE358" s="8"/>
-      <c r="AF358" s="8"/>
-      <c r="AG358" s="9"/>
-      <c r="AH358" s="10"/>
-    </row>
-    <row r="359" spans="1:34">
-      <c r="A359" s="8"/>
-      <c r="B359" s="8"/>
-      <c r="C359" s="8"/>
-      <c r="D359" s="8"/>
-      <c r="E359" s="8"/>
-      <c r="F359" s="8"/>
-      <c r="G359" s="8"/>
-      <c r="H359" s="8"/>
-      <c r="I359" s="8"/>
-      <c r="J359" s="8"/>
-      <c r="K359" s="8"/>
-      <c r="L359" s="8"/>
-      <c r="M359" s="8"/>
-      <c r="N359" s="8"/>
-      <c r="O359" s="8"/>
-      <c r="P359" s="8"/>
-      <c r="Q359" s="8"/>
-      <c r="R359" s="8"/>
-      <c r="S359" s="8"/>
-      <c r="T359" s="8"/>
-      <c r="U359" s="8"/>
-      <c r="V359" s="8"/>
-      <c r="W359" s="8"/>
-      <c r="X359" s="8"/>
-      <c r="Y359" s="8"/>
-      <c r="Z359" s="8"/>
-      <c r="AA359" s="8"/>
-      <c r="AB359" s="8"/>
-      <c r="AC359" s="8"/>
-      <c r="AD359" s="8"/>
-      <c r="AE359" s="8"/>
-      <c r="AF359" s="8"/>
-      <c r="AG359" s="9"/>
-      <c r="AH359" s="10"/>
-    </row>
-    <row r="360" spans="1:34">
-      <c r="A360" s="8"/>
-      <c r="B360" s="8"/>
-      <c r="C360" s="8"/>
-      <c r="D360" s="8"/>
-      <c r="E360" s="8"/>
-      <c r="F360" s="8"/>
-      <c r="G360" s="8"/>
-      <c r="H360" s="8"/>
-      <c r="I360" s="8"/>
-      <c r="J360" s="8"/>
-      <c r="K360" s="8"/>
-      <c r="L360" s="8"/>
-      <c r="M360" s="8"/>
-      <c r="N360" s="8"/>
-      <c r="O360" s="8"/>
-      <c r="P360" s="8"/>
-      <c r="Q360" s="8"/>
-      <c r="R360" s="8"/>
-      <c r="S360" s="8"/>
-      <c r="T360" s="8"/>
-      <c r="U360" s="8"/>
-      <c r="V360" s="8"/>
-      <c r="W360" s="8"/>
-      <c r="X360" s="8"/>
-      <c r="Y360" s="8"/>
-      <c r="Z360" s="8"/>
-      <c r="AA360" s="8"/>
-      <c r="AB360" s="8"/>
-      <c r="AC360" s="8"/>
-      <c r="AD360" s="8"/>
-      <c r="AE360" s="8"/>
-      <c r="AF360" s="8"/>
-      <c r="AG360" s="9"/>
-      <c r="AH360" s="10"/>
-    </row>
-    <row r="361" spans="1:34">
-      <c r="A361" s="8"/>
-      <c r="B361" s="8"/>
-      <c r="C361" s="8"/>
-      <c r="D361" s="8"/>
-      <c r="E361" s="8"/>
-      <c r="F361" s="8"/>
-      <c r="G361" s="8"/>
-      <c r="H361" s="8"/>
-      <c r="I361" s="8"/>
-      <c r="J361" s="8"/>
-      <c r="K361" s="8"/>
-      <c r="L361" s="8"/>
-      <c r="M361" s="8"/>
-      <c r="N361" s="8"/>
-      <c r="O361" s="8"/>
-      <c r="P361" s="8"/>
-      <c r="Q361" s="8"/>
-      <c r="R361" s="8"/>
-      <c r="S361" s="8"/>
-      <c r="T361" s="8"/>
-      <c r="U361" s="8"/>
-      <c r="V361" s="8"/>
-      <c r="W361" s="8"/>
-      <c r="X361" s="8"/>
-      <c r="Y361" s="8"/>
-      <c r="Z361" s="8"/>
-      <c r="AA361" s="8"/>
-      <c r="AB361" s="8"/>
-      <c r="AC361" s="8"/>
-      <c r="AD361" s="8"/>
-      <c r="AE361" s="8"/>
-      <c r="AF361" s="8"/>
-      <c r="AG361" s="9"/>
-      <c r="AH361" s="10"/>
-    </row>
-    <row r="362" spans="1:34">
-      <c r="A362" s="8"/>
-      <c r="B362" s="8"/>
-      <c r="C362" s="8"/>
-      <c r="D362" s="8"/>
-      <c r="E362" s="8"/>
-      <c r="F362" s="8"/>
-      <c r="G362" s="8"/>
-      <c r="H362" s="8"/>
-      <c r="I362" s="8"/>
-      <c r="J362" s="8"/>
-      <c r="K362" s="8"/>
-      <c r="L362" s="8"/>
-      <c r="M362" s="8"/>
-      <c r="N362" s="8"/>
-      <c r="O362" s="8"/>
-      <c r="P362" s="8"/>
-      <c r="Q362" s="8"/>
-      <c r="R362" s="8"/>
-      <c r="S362" s="8"/>
-      <c r="T362" s="8"/>
-      <c r="U362" s="8"/>
-      <c r="V362" s="8"/>
-      <c r="W362" s="8"/>
-      <c r="X362" s="8"/>
-      <c r="Y362" s="8"/>
-      <c r="Z362" s="8"/>
-      <c r="AA362" s="8"/>
-      <c r="AB362" s="8"/>
-      <c r="AC362" s="8"/>
-      <c r="AD362" s="8"/>
-      <c r="AE362" s="8"/>
-      <c r="AF362" s="8"/>
-      <c r="AG362" s="9"/>
-      <c r="AH362" s="10"/>
-    </row>
-    <row r="363" spans="1:34">
-      <c r="A363" s="8"/>
-      <c r="B363" s="8"/>
-      <c r="C363" s="8"/>
-      <c r="D363" s="8"/>
-      <c r="E363" s="8"/>
-      <c r="F363" s="8"/>
-      <c r="G363" s="8"/>
-      <c r="H363" s="8"/>
-      <c r="I363" s="8"/>
-      <c r="J363" s="8"/>
-      <c r="K363" s="8"/>
-      <c r="L363" s="8"/>
-      <c r="M363" s="8"/>
-      <c r="N363" s="8"/>
-      <c r="O363" s="8"/>
-      <c r="P363" s="8"/>
-      <c r="Q363" s="8"/>
-      <c r="R363" s="8"/>
-      <c r="S363" s="8"/>
-      <c r="T363" s="8"/>
-      <c r="U363" s="8"/>
-      <c r="V363" s="8"/>
-      <c r="W363" s="8"/>
-      <c r="X363" s="8"/>
-      <c r="Y363" s="8"/>
-      <c r="Z363" s="8"/>
-      <c r="AA363" s="8"/>
-      <c r="AB363" s="8"/>
-      <c r="AC363" s="8"/>
-      <c r="AD363" s="8"/>
-      <c r="AE363" s="8"/>
-      <c r="AF363" s="8"/>
-      <c r="AG363" s="9"/>
-      <c r="AH363" s="10"/>
-    </row>
-    <row r="364" spans="1:34">
-      <c r="A364" s="8"/>
-      <c r="B364" s="8"/>
-      <c r="C364" s="8"/>
-      <c r="D364" s="8"/>
-      <c r="E364" s="8"/>
-      <c r="F364" s="8"/>
-      <c r="G364" s="8"/>
-      <c r="H364" s="8"/>
-      <c r="I364" s="8"/>
-      <c r="J364" s="8"/>
-      <c r="K364" s="8"/>
-      <c r="L364" s="8"/>
-      <c r="M364" s="8"/>
-      <c r="N364" s="8"/>
-      <c r="O364" s="8"/>
-      <c r="P364" s="8"/>
-      <c r="Q364" s="8"/>
-      <c r="R364" s="8"/>
-      <c r="S364" s="8"/>
-      <c r="T364" s="8"/>
-      <c r="U364" s="8"/>
-      <c r="V364" s="8"/>
-      <c r="W364" s="8"/>
-      <c r="X364" s="8"/>
-      <c r="Y364" s="8"/>
-      <c r="Z364" s="8"/>
-      <c r="AA364" s="8"/>
-      <c r="AB364" s="8"/>
-      <c r="AC364" s="8"/>
-      <c r="AD364" s="8"/>
-      <c r="AE364" s="8"/>
-      <c r="AF364" s="8"/>
-      <c r="AG364" s="9"/>
-      <c r="AH364" s="10"/>
-    </row>
-    <row r="365" spans="1:34">
-      <c r="A365" s="8"/>
-      <c r="B365" s="8"/>
-      <c r="C365" s="8"/>
-      <c r="D365" s="8"/>
-      <c r="E365" s="8"/>
-      <c r="F365" s="8"/>
-      <c r="G365" s="8"/>
-      <c r="H365" s="8"/>
-      <c r="I365" s="8"/>
-      <c r="J365" s="8"/>
-      <c r="K365" s="8"/>
-      <c r="L365" s="8"/>
-      <c r="M365" s="8"/>
-      <c r="N365" s="8"/>
-      <c r="O365" s="8"/>
-      <c r="P365" s="8"/>
-      <c r="Q365" s="8"/>
-      <c r="R365" s="8"/>
-      <c r="S365" s="8"/>
-      <c r="T365" s="8"/>
-      <c r="U365" s="8"/>
-      <c r="V365" s="8"/>
-      <c r="W365" s="8"/>
-      <c r="X365" s="8"/>
-      <c r="Y365" s="8"/>
-      <c r="Z365" s="8"/>
-      <c r="AA365" s="8"/>
-      <c r="AB365" s="8"/>
-      <c r="AC365" s="8"/>
-      <c r="AD365" s="8"/>
-      <c r="AE365" s="8"/>
-      <c r="AF365" s="8"/>
-      <c r="AG365" s="9"/>
-      <c r="AH365" s="10"/>
-    </row>
-    <row r="366" spans="1:34">
-      <c r="A366" s="8"/>
-      <c r="B366" s="8"/>
-      <c r="C366" s="8"/>
-      <c r="D366" s="8"/>
-      <c r="E366" s="8"/>
-      <c r="F366" s="8"/>
-      <c r="G366" s="8"/>
-      <c r="H366" s="8"/>
-      <c r="I366" s="8"/>
-      <c r="J366" s="8"/>
-      <c r="K366" s="8"/>
-      <c r="L366" s="8"/>
-      <c r="M366" s="8"/>
-      <c r="N366" s="8"/>
-      <c r="O366" s="8"/>
-      <c r="P366" s="8"/>
-      <c r="Q366" s="8"/>
-      <c r="R366" s="8"/>
-      <c r="S366" s="8"/>
-      <c r="T366" s="8"/>
-      <c r="U366" s="8"/>
-      <c r="V366" s="8"/>
-      <c r="W366" s="8"/>
-      <c r="X366" s="8"/>
-      <c r="Y366" s="8"/>
-      <c r="Z366" s="8"/>
-      <c r="AA366" s="8"/>
-      <c r="AB366" s="8"/>
-      <c r="AC366" s="8"/>
-      <c r="AD366" s="8"/>
-      <c r="AE366" s="8"/>
-      <c r="AF366" s="8"/>
-      <c r="AG366" s="9"/>
-      <c r="AH366" s="10"/>
-    </row>
-    <row r="367" spans="1:34">
-      <c r="A367" s="8"/>
-      <c r="B367" s="8"/>
-      <c r="C367" s="8"/>
-      <c r="D367" s="8"/>
-      <c r="E367" s="8"/>
-      <c r="F367" s="8"/>
-      <c r="G367" s="8"/>
-      <c r="H367" s="8"/>
-      <c r="I367" s="8"/>
-      <c r="J367" s="8"/>
-      <c r="K367" s="8"/>
-      <c r="L367" s="8"/>
-      <c r="M367" s="8"/>
-      <c r="N367" s="8"/>
-      <c r="O367" s="8"/>
-      <c r="P367" s="8"/>
-      <c r="Q367" s="8"/>
-      <c r="R367" s="8"/>
-      <c r="S367" s="8"/>
-      <c r="T367" s="8"/>
-      <c r="U367" s="8"/>
-      <c r="V367" s="8"/>
-      <c r="W367" s="8"/>
-      <c r="X367" s="8"/>
-      <c r="Y367" s="8"/>
-      <c r="Z367" s="8"/>
-      <c r="AA367" s="8"/>
-      <c r="AB367" s="8"/>
-      <c r="AC367" s="8"/>
-      <c r="AD367" s="8"/>
-      <c r="AE367" s="8"/>
-      <c r="AF367" s="8"/>
-      <c r="AG367" s="9"/>
-      <c r="AH367" s="10"/>
-    </row>
-    <row r="368" spans="1:34">
-      <c r="A368" s="8"/>
-      <c r="B368" s="8"/>
-      <c r="C368" s="8"/>
-      <c r="D368" s="8"/>
-      <c r="E368" s="8"/>
-      <c r="F368" s="8"/>
-      <c r="G368" s="8"/>
-      <c r="H368" s="8"/>
-      <c r="I368" s="8"/>
-      <c r="J368" s="8"/>
-      <c r="K368" s="8"/>
-      <c r="L368" s="8"/>
-      <c r="M368" s="8"/>
-      <c r="N368" s="8"/>
-      <c r="O368" s="8"/>
-      <c r="P368" s="8"/>
-      <c r="Q368" s="8"/>
-      <c r="R368" s="8"/>
-      <c r="S368" s="8"/>
-      <c r="T368" s="8"/>
-      <c r="U368" s="8"/>
-      <c r="V368" s="8"/>
-      <c r="W368" s="8"/>
-      <c r="X368" s="8"/>
-      <c r="Y368" s="8"/>
-      <c r="Z368" s="8"/>
-      <c r="AA368" s="8"/>
-      <c r="AB368" s="8"/>
-      <c r="AC368" s="8"/>
-      <c r="AD368" s="8"/>
-      <c r="AE368" s="8"/>
-      <c r="AF368" s="8"/>
-      <c r="AG368" s="9"/>
-      <c r="AH368" s="10"/>
-    </row>
-    <row r="369" spans="1:34">
-      <c r="A369" s="8"/>
-      <c r="B369" s="8"/>
-      <c r="C369" s="8"/>
-      <c r="D369" s="8"/>
-      <c r="E369" s="8"/>
-      <c r="F369" s="8"/>
-      <c r="G369" s="8"/>
-      <c r="H369" s="8"/>
-      <c r="I369" s="8"/>
-      <c r="J369" s="8"/>
-      <c r="K369" s="8"/>
-      <c r="L369" s="8"/>
-      <c r="M369" s="8"/>
-      <c r="N369" s="8"/>
-      <c r="O369" s="8"/>
-      <c r="P369" s="8"/>
-      <c r="Q369" s="8"/>
-      <c r="R369" s="8"/>
-      <c r="S369" s="8"/>
-      <c r="T369" s="8"/>
-      <c r="U369" s="8"/>
-      <c r="V369" s="8"/>
-      <c r="W369" s="8"/>
-      <c r="X369" s="8"/>
-      <c r="Y369" s="8"/>
-      <c r="Z369" s="8"/>
-      <c r="AA369" s="8"/>
-      <c r="AB369" s="8"/>
-      <c r="AC369" s="8"/>
-      <c r="AD369" s="8"/>
-      <c r="AE369" s="8"/>
-      <c r="AF369" s="8"/>
-      <c r="AG369" s="9"/>
-      <c r="AH369" s="10"/>
-    </row>
-    <row r="370" spans="1:34">
-      <c r="A370" s="8"/>
-      <c r="B370" s="8"/>
-      <c r="C370" s="8"/>
-      <c r="D370" s="8"/>
-      <c r="E370" s="8"/>
-      <c r="F370" s="8"/>
-      <c r="G370" s="8"/>
-      <c r="H370" s="8"/>
-      <c r="I370" s="8"/>
-      <c r="J370" s="8"/>
-      <c r="K370" s="8"/>
-      <c r="L370" s="8"/>
-      <c r="M370" s="8"/>
-      <c r="N370" s="8"/>
-      <c r="O370" s="8"/>
-      <c r="P370" s="8"/>
-      <c r="Q370" s="8"/>
-      <c r="R370" s="8"/>
-      <c r="S370" s="8"/>
-      <c r="T370" s="8"/>
-      <c r="U370" s="8"/>
-      <c r="V370" s="8"/>
-      <c r="W370" s="8"/>
-      <c r="X370" s="8"/>
-      <c r="Y370" s="8"/>
-      <c r="Z370" s="8"/>
-      <c r="AA370" s="8"/>
-      <c r="AB370" s="8"/>
-      <c r="AC370" s="8"/>
-      <c r="AD370" s="8"/>
-      <c r="AE370" s="8"/>
-      <c r="AF370" s="8"/>
-      <c r="AG370" s="9"/>
-      <c r="AH370" s="10"/>
-    </row>
-    <row r="371" spans="1:34">
-      <c r="A371" s="8"/>
-      <c r="B371" s="8"/>
-      <c r="C371" s="8"/>
-      <c r="D371" s="8"/>
-      <c r="E371" s="8"/>
-      <c r="F371" s="8"/>
-      <c r="G371" s="8"/>
-      <c r="H371" s="8"/>
-      <c r="I371" s="8"/>
-      <c r="J371" s="8"/>
-      <c r="K371" s="8"/>
-      <c r="L371" s="8"/>
-      <c r="M371" s="8"/>
-      <c r="N371" s="8"/>
-      <c r="O371" s="8"/>
-      <c r="P371" s="8"/>
-      <c r="Q371" s="8"/>
-      <c r="R371" s="8"/>
-      <c r="S371" s="8"/>
-      <c r="T371" s="8"/>
-      <c r="U371" s="8"/>
-      <c r="V371" s="8"/>
-      <c r="W371" s="8"/>
-      <c r="X371" s="8"/>
-      <c r="Y371" s="8"/>
-      <c r="Z371" s="8"/>
-      <c r="AA371" s="8"/>
-      <c r="AB371" s="8"/>
-      <c r="AC371" s="8"/>
-      <c r="AD371" s="8"/>
-      <c r="AE371" s="8"/>
-      <c r="AF371" s="8"/>
-      <c r="AG371" s="9"/>
-      <c r="AH371" s="10"/>
-    </row>
-    <row r="372" spans="1:34">
-      <c r="A372" s="8"/>
-      <c r="B372" s="8"/>
-      <c r="C372" s="8"/>
-      <c r="D372" s="8"/>
-      <c r="E372" s="8"/>
-      <c r="F372" s="8"/>
-      <c r="G372" s="8"/>
-      <c r="H372" s="8"/>
-      <c r="I372" s="8"/>
-      <c r="J372" s="8"/>
-      <c r="K372" s="8"/>
-      <c r="L372" s="8"/>
-      <c r="M372" s="8"/>
-      <c r="N372" s="8"/>
-      <c r="O372" s="8"/>
-      <c r="P372" s="8"/>
-      <c r="Q372" s="8"/>
-      <c r="R372" s="8"/>
-      <c r="S372" s="8"/>
-      <c r="T372" s="8"/>
-      <c r="U372" s="8"/>
-      <c r="V372" s="8"/>
-      <c r="W372" s="8"/>
-      <c r="X372" s="8"/>
-      <c r="Y372" s="8"/>
-      <c r="Z372" s="8"/>
-      <c r="AA372" s="8"/>
-      <c r="AB372" s="8"/>
-      <c r="AC372" s="8"/>
-      <c r="AD372" s="8"/>
-      <c r="AE372" s="8"/>
-      <c r="AF372" s="8"/>
-      <c r="AG372" s="9"/>
-      <c r="AH372" s="10"/>
-    </row>
-    <row r="373" spans="1:34">
-      <c r="A373" s="8"/>
-      <c r="B373" s="8"/>
-      <c r="C373" s="8"/>
-      <c r="D373" s="8"/>
-      <c r="E373" s="8"/>
-      <c r="F373" s="8"/>
-      <c r="G373" s="8"/>
-      <c r="H373" s="8"/>
-      <c r="I373" s="8"/>
-      <c r="J373" s="8"/>
-      <c r="K373" s="8"/>
-      <c r="L373" s="8"/>
-      <c r="M373" s="8"/>
-      <c r="N373" s="8"/>
-      <c r="O373" s="8"/>
-      <c r="P373" s="8"/>
-      <c r="Q373" s="8"/>
-      <c r="R373" s="8"/>
-      <c r="S373" s="8"/>
-      <c r="T373" s="8"/>
-      <c r="U373" s="8"/>
-      <c r="V373" s="8"/>
-      <c r="W373" s="8"/>
-      <c r="X373" s="8"/>
-      <c r="Y373" s="8"/>
-      <c r="Z373" s="8"/>
-      <c r="AA373" s="8"/>
-      <c r="AB373" s="8"/>
-      <c r="AC373" s="8"/>
-      <c r="AD373" s="8"/>
-      <c r="AE373" s="8"/>
-      <c r="AF373" s="8"/>
-      <c r="AG373" s="9"/>
-      <c r="AH373" s="10"/>
-    </row>
-    <row r="374" spans="1:34">
-      <c r="A374" s="8"/>
-      <c r="B374" s="8"/>
-      <c r="C374" s="8"/>
-      <c r="D374" s="8"/>
-      <c r="E374" s="8"/>
-      <c r="F374" s="8"/>
-      <c r="G374" s="8"/>
-      <c r="H374" s="8"/>
-      <c r="I374" s="8"/>
-      <c r="J374" s="8"/>
-      <c r="K374" s="8"/>
-      <c r="L374" s="8"/>
-      <c r="M374" s="8"/>
-      <c r="N374" s="8"/>
-      <c r="O374" s="8"/>
-      <c r="P374" s="8"/>
-      <c r="Q374" s="8"/>
-      <c r="R374" s="8"/>
-      <c r="S374" s="8"/>
-      <c r="T374" s="8"/>
-      <c r="U374" s="8"/>
-      <c r="V374" s="8"/>
-      <c r="W374" s="8"/>
-      <c r="X374" s="8"/>
-      <c r="Y374" s="8"/>
-      <c r="Z374" s="8"/>
-      <c r="AA374" s="8"/>
-      <c r="AB374" s="8"/>
-      <c r="AC374" s="8"/>
-      <c r="AD374" s="8"/>
-      <c r="AE374" s="8"/>
-      <c r="AF374" s="8"/>
-      <c r="AG374" s="9"/>
-      <c r="AH374" s="10"/>
-    </row>
-    <row r="375" spans="1:34">
-      <c r="A375" s="8"/>
-      <c r="B375" s="8"/>
-      <c r="C375" s="8"/>
-      <c r="D375" s="8"/>
-      <c r="E375" s="8"/>
-      <c r="F375" s="8"/>
-      <c r="G375" s="8"/>
-      <c r="H375" s="8"/>
-      <c r="I375" s="8"/>
-      <c r="J375" s="8"/>
-      <c r="K375" s="8"/>
-      <c r="L375" s="8"/>
-      <c r="M375" s="8"/>
-      <c r="N375" s="8"/>
-      <c r="O375" s="8"/>
-      <c r="P375" s="8"/>
-      <c r="Q375" s="8"/>
-      <c r="R375" s="8"/>
-      <c r="S375" s="8"/>
-      <c r="T375" s="8"/>
-      <c r="U375" s="8"/>
-      <c r="V375" s="8"/>
-      <c r="W375" s="8"/>
-      <c r="X375" s="8"/>
-      <c r="Y375" s="8"/>
-      <c r="Z375" s="8"/>
-      <c r="AA375" s="8"/>
-      <c r="AB375" s="8"/>
-      <c r="AC375" s="8"/>
-      <c r="AD375" s="8"/>
-      <c r="AE375" s="8"/>
-      <c r="AF375" s="8"/>
-      <c r="AG375" s="9"/>
-      <c r="AH375" s="10"/>
-    </row>
-    <row r="376" spans="1:34">
-      <c r="A376" s="8"/>
-      <c r="B376" s="8"/>
-      <c r="C376" s="8"/>
-      <c r="D376" s="8"/>
-      <c r="E376" s="8"/>
-      <c r="F376" s="8"/>
-      <c r="G376" s="8"/>
-      <c r="H376" s="8"/>
-      <c r="I376" s="8"/>
-      <c r="J376" s="8"/>
-      <c r="K376" s="8"/>
-      <c r="L376" s="8"/>
-      <c r="M376" s="8"/>
-      <c r="N376" s="8"/>
-      <c r="O376" s="8"/>
-      <c r="P376" s="8"/>
-      <c r="Q376" s="8"/>
-      <c r="R376" s="8"/>
-      <c r="S376" s="8"/>
-      <c r="T376" s="8"/>
-      <c r="U376" s="8"/>
-      <c r="V376" s="8"/>
-      <c r="W376" s="8"/>
-      <c r="X376" s="8"/>
-      <c r="Y376" s="8"/>
-      <c r="Z376" s="8"/>
-      <c r="AA376" s="8"/>
-      <c r="AB376" s="8"/>
-      <c r="AC376" s="8"/>
-      <c r="AD376" s="8"/>
-      <c r="AE376" s="8"/>
-      <c r="AF376" s="8"/>
-      <c r="AG376" s="9"/>
-      <c r="AH376" s="10"/>
-    </row>
-    <row r="377" spans="1:34">
-      <c r="A377" s="8"/>
-      <c r="B377" s="8"/>
-      <c r="C377" s="8"/>
-      <c r="D377" s="8"/>
-      <c r="E377" s="8"/>
-      <c r="F377" s="8"/>
-      <c r="G377" s="8"/>
-      <c r="H377" s="8"/>
-      <c r="I377" s="8"/>
-      <c r="J377" s="8"/>
-      <c r="K377" s="8"/>
-      <c r="L377" s="8"/>
-      <c r="M377" s="8"/>
-      <c r="N377" s="8"/>
-      <c r="O377" s="8"/>
-      <c r="P377" s="8"/>
-      <c r="Q377" s="8"/>
-      <c r="R377" s="8"/>
-      <c r="S377" s="8"/>
-      <c r="T377" s="8"/>
-      <c r="U377" s="8"/>
-      <c r="V377" s="8"/>
-      <c r="W377" s="8"/>
-      <c r="X377" s="8"/>
-      <c r="Y377" s="8"/>
-      <c r="Z377" s="8"/>
-      <c r="AA377" s="8"/>
-      <c r="AB377" s="8"/>
-      <c r="AC377" s="8"/>
-      <c r="AD377" s="8"/>
-      <c r="AE377" s="8"/>
-      <c r="AF377" s="8"/>
-      <c r="AG377" s="9"/>
-      <c r="AH377" s="10"/>
-    </row>
-    <row r="378" spans="1:34">
-      <c r="A378" s="8"/>
-      <c r="B378" s="8"/>
-      <c r="C378" s="8"/>
-      <c r="D378" s="8"/>
-      <c r="E378" s="8"/>
-      <c r="F378" s="8"/>
-      <c r="G378" s="8"/>
-      <c r="H378" s="8"/>
-      <c r="I378" s="8"/>
-      <c r="J378" s="8"/>
-      <c r="K378" s="8"/>
-      <c r="L378" s="8"/>
-      <c r="M378" s="8"/>
-      <c r="N378" s="8"/>
-      <c r="O378" s="8"/>
-      <c r="P378" s="8"/>
-      <c r="Q378" s="8"/>
-      <c r="R378" s="8"/>
-      <c r="S378" s="8"/>
-      <c r="T378" s="8"/>
-      <c r="U378" s="8"/>
-      <c r="V378" s="8"/>
-      <c r="W378" s="8"/>
-      <c r="X378" s="8"/>
-      <c r="Y378" s="8"/>
-      <c r="Z378" s="8"/>
-      <c r="AA378" s="8"/>
-      <c r="AB378" s="8"/>
-      <c r="AC378" s="8"/>
-      <c r="AD378" s="8"/>
-      <c r="AE378" s="8"/>
-      <c r="AF378" s="8"/>
-      <c r="AG378" s="9"/>
-      <c r="AH378" s="10"/>
-    </row>
-    <row r="379" spans="1:34">
-      <c r="A379" s="8"/>
-      <c r="B379" s="8"/>
-      <c r="C379" s="8"/>
-      <c r="D379" s="8"/>
-      <c r="E379" s="8"/>
-      <c r="F379" s="8"/>
-      <c r="G379" s="8"/>
-      <c r="H379" s="8"/>
-      <c r="I379" s="8"/>
-      <c r="J379" s="8"/>
-      <c r="K379" s="8"/>
-      <c r="L379" s="8"/>
-      <c r="M379" s="8"/>
-      <c r="N379" s="8"/>
-      <c r="O379" s="8"/>
-      <c r="P379" s="8"/>
-      <c r="Q379" s="8"/>
-      <c r="R379" s="8"/>
-      <c r="S379" s="8"/>
-      <c r="T379" s="8"/>
-      <c r="U379" s="8"/>
-      <c r="V379" s="8"/>
-      <c r="W379" s="8"/>
-      <c r="X379" s="8"/>
-      <c r="Y379" s="8"/>
-      <c r="Z379" s="8"/>
-      <c r="AA379" s="8"/>
-      <c r="AB379" s="8"/>
-      <c r="AC379" s="8"/>
-      <c r="AD379" s="8"/>
-      <c r="AE379" s="8"/>
-      <c r="AF379" s="8"/>
-      <c r="AG379" s="9"/>
-      <c r="AH379" s="10"/>
-    </row>
-    <row r="380" spans="1:34">
-      <c r="A380" s="8"/>
-      <c r="B380" s="8"/>
-      <c r="C380" s="8"/>
-      <c r="D380" s="8"/>
-      <c r="E380" s="8"/>
-      <c r="F380" s="8"/>
-      <c r="G380" s="8"/>
-      <c r="H380" s="8"/>
-      <c r="I380" s="8"/>
-      <c r="J380" s="8"/>
-      <c r="K380" s="8"/>
-      <c r="L380" s="8"/>
-      <c r="M380" s="8"/>
-      <c r="N380" s="8"/>
-      <c r="O380" s="8"/>
-      <c r="P380" s="8"/>
-      <c r="Q380" s="8"/>
-      <c r="R380" s="8"/>
-      <c r="S380" s="8"/>
-      <c r="T380" s="8"/>
-      <c r="U380" s="8"/>
-      <c r="V380" s="8"/>
-      <c r="W380" s="8"/>
-      <c r="X380" s="8"/>
-      <c r="Y380" s="8"/>
-      <c r="Z380" s="8"/>
-      <c r="AA380" s="8"/>
-      <c r="AB380" s="8"/>
-      <c r="AC380" s="8"/>
-      <c r="AD380" s="8"/>
-      <c r="AE380" s="8"/>
-      <c r="AF380" s="8"/>
-      <c r="AG380" s="9"/>
-      <c r="AH380" s="10"/>
-    </row>
-    <row r="381" spans="1:34">
-      <c r="A381" s="10"/>
-      <c r="B381" s="10"/>
-      <c r="C381" s="10"/>
-      <c r="D381" s="10"/>
-      <c r="E381" s="10"/>
-      <c r="F381" s="10"/>
-      <c r="G381" s="10"/>
-      <c r="H381" s="10"/>
-      <c r="I381" s="10"/>
-      <c r="J381" s="10"/>
-      <c r="K381" s="10"/>
-      <c r="L381" s="10"/>
-      <c r="M381" s="10"/>
-      <c r="N381" s="10"/>
-      <c r="O381" s="10"/>
-      <c r="P381" s="10"/>
-      <c r="Q381" s="10"/>
-      <c r="R381" s="10"/>
-      <c r="S381" s="10"/>
-      <c r="T381" s="10"/>
-      <c r="U381" s="10"/>
-      <c r="V381" s="10"/>
-      <c r="W381" s="10"/>
-      <c r="X381" s="10"/>
-      <c r="Y381" s="10"/>
-      <c r="Z381" s="10"/>
-      <c r="AA381" s="10"/>
-      <c r="AB381" s="10"/>
-      <c r="AC381" s="10"/>
-      <c r="AD381" s="10"/>
-      <c r="AE381" s="10"/>
-      <c r="AF381" s="10"/>
-      <c r="AG381" s="10"/>
-      <c r="AH381" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
